--- a/data/full_dataset_multivariate_gdp_interstRates.xlsx
+++ b/data/full_dataset_multivariate_gdp_interstRates.xlsx
@@ -503,6 +503,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -555,11 +558,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,8 +894,8 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>2014</v>
+      <c r="C2" s="2">
+        <v>41640</v>
       </c>
       <c r="D2">
         <v>637791.99</v>
@@ -913,8 +917,8 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>2015</v>
+      <c r="C3" s="2">
+        <v>42005</v>
       </c>
       <c r="D3">
         <v>1043269.72</v>
@@ -936,8 +940,8 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>2016</v>
+      <c r="C4" s="2">
+        <v>42370</v>
       </c>
       <c r="D4">
         <v>576363.95</v>
@@ -959,8 +963,8 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>2017</v>
+      <c r="C5" s="2">
+        <v>42736</v>
       </c>
       <c r="D5">
         <v>683077.75</v>
@@ -982,8 +986,8 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>2018</v>
+      <c r="C6" s="2">
+        <v>43101</v>
       </c>
       <c r="D6">
         <v>1662274.72</v>
@@ -1005,8 +1009,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>2019</v>
+      <c r="C7" s="2">
+        <v>43466</v>
       </c>
       <c r="D7">
         <v>542493.41</v>
@@ -1025,8 +1029,8 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>2020</v>
+      <c r="C8" s="2">
+        <v>43831</v>
       </c>
       <c r="D8">
         <v>128476.25</v>
@@ -1048,8 +1052,8 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>2021</v>
+      <c r="C9" s="2">
+        <v>44197</v>
       </c>
       <c r="D9">
         <v>513034.18</v>
@@ -1068,8 +1072,8 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>2022</v>
+      <c r="C10" s="2">
+        <v>44562</v>
       </c>
       <c r="D10">
         <v>559862.9399999999</v>
@@ -1088,8 +1092,8 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>2023</v>
+      <c r="C11" s="2">
+        <v>44927</v>
       </c>
       <c r="D11">
         <v>1128375.68</v>
@@ -1111,8 +1115,8 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>2014</v>
+      <c r="C12" s="2">
+        <v>41640</v>
       </c>
       <c r="D12">
         <v>750000.01</v>
@@ -1134,8 +1138,8 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>2015</v>
+      <c r="C13" s="2">
+        <v>42005</v>
       </c>
       <c r="D13">
         <v>997785.62</v>
@@ -1157,8 +1161,8 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
-        <v>2016</v>
+      <c r="C14" s="2">
+        <v>42370</v>
       </c>
       <c r="D14">
         <v>990905.52</v>
@@ -1180,8 +1184,8 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>2017</v>
+      <c r="C15" s="2">
+        <v>42736</v>
       </c>
       <c r="D15">
         <v>807640.25</v>
@@ -1203,8 +1207,8 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
-        <v>2018</v>
+      <c r="C16" s="2">
+        <v>43101</v>
       </c>
       <c r="D16">
         <v>939452.24</v>
@@ -1226,8 +1230,8 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>2019</v>
+      <c r="C17" s="2">
+        <v>43466</v>
       </c>
       <c r="D17">
         <v>610355.66</v>
@@ -1246,8 +1250,8 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>2020</v>
+      <c r="C18" s="2">
+        <v>43831</v>
       </c>
       <c r="D18">
         <v>555576.49</v>
@@ -1266,8 +1270,8 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>2021</v>
+      <c r="C19" s="2">
+        <v>44197</v>
       </c>
       <c r="D19">
         <v>1121160.16</v>
@@ -1289,8 +1293,8 @@
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
-        <v>2022</v>
+      <c r="C20" s="2">
+        <v>44562</v>
       </c>
       <c r="D20">
         <v>1071926.24</v>
@@ -1312,8 +1316,8 @@
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
-        <v>2023</v>
+      <c r="C21" s="2">
+        <v>44927</v>
       </c>
       <c r="D21">
         <v>846948.54</v>
@@ -1335,8 +1339,8 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
-        <v>2014</v>
+      <c r="C22" s="2">
+        <v>41640</v>
       </c>
       <c r="D22">
         <v>750000.05</v>
@@ -1358,8 +1362,8 @@
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>2015</v>
+      <c r="C23" s="2">
+        <v>42005</v>
       </c>
       <c r="D23">
         <v>997785.67</v>
@@ -1381,8 +1385,8 @@
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>2016</v>
+      <c r="C24" s="2">
+        <v>42370</v>
       </c>
       <c r="D24">
         <v>995381.26</v>
@@ -1404,8 +1408,8 @@
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
-        <v>2017</v>
+      <c r="C25" s="2">
+        <v>42736</v>
       </c>
       <c r="D25">
         <v>812467.24</v>
@@ -1427,8 +1431,8 @@
       <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
-        <v>2018</v>
+      <c r="C26" s="2">
+        <v>43101</v>
       </c>
       <c r="D26">
         <v>939797.5600000001</v>
@@ -1450,8 +1454,8 @@
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
-        <v>2019</v>
+      <c r="C27" s="2">
+        <v>43466</v>
       </c>
       <c r="D27">
         <v>610360.97</v>
@@ -1470,8 +1474,8 @@
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28">
-        <v>2020</v>
+      <c r="C28" s="2">
+        <v>43831</v>
       </c>
       <c r="D28">
         <v>555576.34</v>
@@ -1490,8 +1494,8 @@
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
-        <v>2021</v>
+      <c r="C29" s="2">
+        <v>44197</v>
       </c>
       <c r="D29">
         <v>1162108.21</v>
@@ -1510,8 +1514,8 @@
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <v>2022</v>
+      <c r="C30" s="2">
+        <v>44562</v>
       </c>
       <c r="D30">
         <v>1101099.99</v>
@@ -1533,8 +1537,8 @@
       <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
-        <v>2023</v>
+      <c r="C31" s="2">
+        <v>44927</v>
       </c>
       <c r="D31">
         <v>986421.71</v>
@@ -1556,8 +1560,8 @@
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32">
-        <v>2014</v>
+      <c r="C32" s="2">
+        <v>41640</v>
       </c>
       <c r="D32">
         <v>245831.07</v>
@@ -1579,8 +1583,8 @@
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>2015</v>
+      <c r="C33" s="2">
+        <v>42005</v>
       </c>
       <c r="D33">
         <v>639033.2</v>
@@ -1602,8 +1606,8 @@
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
-        <v>2016</v>
+      <c r="C34" s="2">
+        <v>42370</v>
       </c>
       <c r="D34">
         <v>343015.2</v>
@@ -1625,8 +1629,8 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35">
-        <v>2017</v>
+      <c r="C35" s="2">
+        <v>42736</v>
       </c>
       <c r="D35">
         <v>118893.87</v>
@@ -1648,8 +1652,8 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
-        <v>2018</v>
+      <c r="C36" s="2">
+        <v>43101</v>
       </c>
       <c r="D36">
         <v>263422.8</v>
@@ -1671,8 +1675,8 @@
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37">
-        <v>2019</v>
+      <c r="C37" s="2">
+        <v>43466</v>
       </c>
       <c r="D37">
         <v>2877288.82</v>
@@ -1691,8 +1695,8 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
-        <v>2020</v>
+      <c r="C38" s="2">
+        <v>43831</v>
       </c>
       <c r="D38">
         <v>3072084.89</v>
@@ -1714,8 +1718,8 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39">
-        <v>2021</v>
+      <c r="C39" s="2">
+        <v>44197</v>
       </c>
       <c r="D39">
         <v>1764998.73</v>
@@ -1734,8 +1738,8 @@
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
-        <v>2022</v>
+      <c r="C40" s="2">
+        <v>44562</v>
       </c>
       <c r="D40">
         <v>500000</v>
@@ -1754,8 +1758,8 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41">
-        <v>2023</v>
+      <c r="C41" s="2">
+        <v>44927</v>
       </c>
       <c r="D41">
         <v>588636.5600000001</v>
@@ -1777,8 +1781,8 @@
       <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C42">
-        <v>2014</v>
+      <c r="C42" s="2">
+        <v>41640</v>
       </c>
       <c r="D42">
         <v>750000.09</v>
@@ -1800,8 +1804,8 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43">
-        <v>2015</v>
+      <c r="C43" s="2">
+        <v>42005</v>
       </c>
       <c r="D43">
         <v>1206848.16</v>
@@ -1823,8 +1827,8 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="C44">
-        <v>2016</v>
+      <c r="C44" s="2">
+        <v>42370</v>
       </c>
       <c r="D44">
         <v>366671.84</v>
@@ -1846,8 +1850,8 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45">
-        <v>2017</v>
+      <c r="C45" s="2">
+        <v>42736</v>
       </c>
       <c r="D45">
         <v>3189515.2</v>
@@ -1869,8 +1873,8 @@
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="C46">
-        <v>2018</v>
+      <c r="C46" s="2">
+        <v>43101</v>
       </c>
       <c r="D46">
         <v>588617.2</v>
@@ -1892,8 +1896,8 @@
       <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="C47">
-        <v>2019</v>
+      <c r="C47" s="2">
+        <v>43466</v>
       </c>
       <c r="D47">
         <v>1345705.11</v>
@@ -1912,8 +1916,8 @@
       <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="C48">
-        <v>2020</v>
+      <c r="C48" s="2">
+        <v>43831</v>
       </c>
       <c r="D48">
         <v>857023.22</v>
@@ -1932,8 +1936,8 @@
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C49">
-        <v>2021</v>
+      <c r="C49" s="2">
+        <v>44197</v>
       </c>
       <c r="D49">
         <v>336361.02</v>
@@ -1952,8 +1956,8 @@
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="C50">
-        <v>2022</v>
+      <c r="C50" s="2">
+        <v>44562</v>
       </c>
       <c r="D50">
         <v>641814.61</v>
@@ -1975,8 +1979,8 @@
       <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="C51">
-        <v>2023</v>
+      <c r="C51" s="2">
+        <v>44927</v>
       </c>
       <c r="D51">
         <v>6211734.93</v>
@@ -1998,8 +2002,8 @@
       <c r="B52" t="s">
         <v>12</v>
       </c>
-      <c r="C52">
-        <v>2021</v>
+      <c r="C52" s="2">
+        <v>44197</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2018,8 +2022,8 @@
       <c r="B53" t="s">
         <v>12</v>
       </c>
-      <c r="C53">
-        <v>2022</v>
+      <c r="C53" s="2">
+        <v>44562</v>
       </c>
       <c r="D53">
         <v>11385</v>
@@ -2041,8 +2045,8 @@
       <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="C54">
-        <v>2014</v>
+      <c r="C54" s="2">
+        <v>41640</v>
       </c>
       <c r="D54">
         <v>1380583.55</v>
@@ -2064,8 +2068,8 @@
       <c r="B55" t="s">
         <v>13</v>
       </c>
-      <c r="C55">
-        <v>2015</v>
+      <c r="C55" s="2">
+        <v>42005</v>
       </c>
       <c r="D55">
         <v>631544.09</v>
@@ -2087,8 +2091,8 @@
       <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="C56">
-        <v>2016</v>
+      <c r="C56" s="2">
+        <v>42370</v>
       </c>
       <c r="D56">
         <v>1125976.16</v>
@@ -2110,8 +2114,8 @@
       <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C57">
-        <v>2017</v>
+      <c r="C57" s="2">
+        <v>42736</v>
       </c>
       <c r="D57">
         <v>1526556.11</v>
@@ -2133,8 +2137,8 @@
       <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="C58">
-        <v>2018</v>
+      <c r="C58" s="2">
+        <v>43101</v>
       </c>
       <c r="D58">
         <v>1786851.61</v>
@@ -2156,8 +2160,8 @@
       <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59">
-        <v>2019</v>
+      <c r="C59" s="2">
+        <v>43466</v>
       </c>
       <c r="D59">
         <v>2927638.63</v>
@@ -2176,8 +2180,8 @@
       <c r="B60" t="s">
         <v>13</v>
       </c>
-      <c r="C60">
-        <v>2020</v>
+      <c r="C60" s="2">
+        <v>43831</v>
       </c>
       <c r="D60">
         <v>2774229.05</v>
@@ -2199,8 +2203,8 @@
       <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="C61">
-        <v>2021</v>
+      <c r="C61" s="2">
+        <v>44197</v>
       </c>
       <c r="D61">
         <v>1521039.35</v>
@@ -2219,8 +2223,8 @@
       <c r="B62" t="s">
         <v>13</v>
       </c>
-      <c r="C62">
-        <v>2022</v>
+      <c r="C62" s="2">
+        <v>44562</v>
       </c>
       <c r="D62">
         <v>138760.99</v>
@@ -2239,8 +2243,8 @@
       <c r="B63" t="s">
         <v>13</v>
       </c>
-      <c r="C63">
-        <v>2023</v>
+      <c r="C63" s="2">
+        <v>44927</v>
       </c>
       <c r="D63">
         <v>-10737.07</v>
@@ -2259,8 +2263,8 @@
       <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="C64">
-        <v>2014</v>
+      <c r="C64" s="2">
+        <v>41640</v>
       </c>
       <c r="D64">
         <v>1033102.01</v>
@@ -2282,8 +2286,8 @@
       <c r="B65" t="s">
         <v>14</v>
       </c>
-      <c r="C65">
-        <v>2015</v>
+      <c r="C65" s="2">
+        <v>42005</v>
       </c>
       <c r="D65">
         <v>3216208.07</v>
@@ -2305,8 +2309,8 @@
       <c r="B66" t="s">
         <v>14</v>
       </c>
-      <c r="C66">
-        <v>2016</v>
+      <c r="C66" s="2">
+        <v>42370</v>
       </c>
       <c r="D66">
         <v>1325498.87</v>
@@ -2328,8 +2332,8 @@
       <c r="B67" t="s">
         <v>14</v>
       </c>
-      <c r="C67">
-        <v>2017</v>
+      <c r="C67" s="2">
+        <v>42736</v>
       </c>
       <c r="D67">
         <v>1702289.63</v>
@@ -2351,8 +2355,8 @@
       <c r="B68" t="s">
         <v>14</v>
       </c>
-      <c r="C68">
-        <v>2018</v>
+      <c r="C68" s="2">
+        <v>43101</v>
       </c>
       <c r="D68">
         <v>906175.0600000001</v>
@@ -2374,8 +2378,8 @@
       <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C69">
-        <v>2019</v>
+      <c r="C69" s="2">
+        <v>43466</v>
       </c>
       <c r="D69">
         <v>2000000</v>
@@ -2394,8 +2398,8 @@
       <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="C70">
-        <v>2020</v>
+      <c r="C70" s="2">
+        <v>43831</v>
       </c>
       <c r="D70">
         <v>1186435.08</v>
@@ -2417,8 +2421,8 @@
       <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C71">
-        <v>2021</v>
+      <c r="C71" s="2">
+        <v>44197</v>
       </c>
       <c r="D71">
         <v>309359.09</v>
@@ -2437,8 +2441,8 @@
       <c r="B72" t="s">
         <v>14</v>
       </c>
-      <c r="C72">
-        <v>2022</v>
+      <c r="C72" s="2">
+        <v>44562</v>
       </c>
       <c r="D72">
         <v>400</v>
@@ -2457,8 +2461,8 @@
       <c r="B73" t="s">
         <v>15</v>
       </c>
-      <c r="C73">
-        <v>2014</v>
+      <c r="C73" s="2">
+        <v>41640</v>
       </c>
       <c r="D73">
         <v>-0.01</v>
@@ -2477,8 +2481,8 @@
       <c r="B74" t="s">
         <v>15</v>
       </c>
-      <c r="C74">
-        <v>2016</v>
+      <c r="C74" s="2">
+        <v>42370</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2497,8 +2501,8 @@
       <c r="B75" t="s">
         <v>15</v>
       </c>
-      <c r="C75">
-        <v>2017</v>
+      <c r="C75" s="2">
+        <v>42736</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2517,8 +2521,8 @@
       <c r="B76" t="s">
         <v>15</v>
       </c>
-      <c r="C76">
-        <v>2018</v>
+      <c r="C76" s="2">
+        <v>43101</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2537,8 +2541,8 @@
       <c r="B77" t="s">
         <v>15</v>
       </c>
-      <c r="C77">
-        <v>2021</v>
+      <c r="C77" s="2">
+        <v>44197</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2557,8 +2561,8 @@
       <c r="B78" t="s">
         <v>15</v>
       </c>
-      <c r="C78">
-        <v>2022</v>
+      <c r="C78" s="2">
+        <v>44562</v>
       </c>
       <c r="D78">
         <v>750000</v>
@@ -2580,8 +2584,8 @@
       <c r="B79" t="s">
         <v>15</v>
       </c>
-      <c r="C79">
-        <v>2023</v>
+      <c r="C79" s="2">
+        <v>44927</v>
       </c>
       <c r="D79">
         <v>500000</v>
@@ -2603,8 +2607,8 @@
       <c r="B80" t="s">
         <v>16</v>
       </c>
-      <c r="C80">
-        <v>2014</v>
+      <c r="C80" s="2">
+        <v>41640</v>
       </c>
       <c r="D80">
         <v>448814.94</v>
@@ -2626,8 +2630,8 @@
       <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81">
-        <v>2015</v>
+      <c r="C81" s="2">
+        <v>42005</v>
       </c>
       <c r="D81">
         <v>886525.48</v>
@@ -2649,8 +2653,8 @@
       <c r="B82" t="s">
         <v>16</v>
       </c>
-      <c r="C82">
-        <v>2016</v>
+      <c r="C82" s="2">
+        <v>42370</v>
       </c>
       <c r="D82">
         <v>513090.78</v>
@@ -2672,8 +2676,8 @@
       <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="C83">
-        <v>2017</v>
+      <c r="C83" s="2">
+        <v>42736</v>
       </c>
       <c r="D83">
         <v>1293516.03</v>
@@ -2695,8 +2699,8 @@
       <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="C84">
-        <v>2018</v>
+      <c r="C84" s="2">
+        <v>43101</v>
       </c>
       <c r="D84">
         <v>1022890.53</v>
@@ -2718,8 +2722,8 @@
       <c r="B85" t="s">
         <v>16</v>
       </c>
-      <c r="C85">
-        <v>2019</v>
+      <c r="C85" s="2">
+        <v>43466</v>
       </c>
       <c r="D85">
         <v>67984.06</v>
@@ -2741,8 +2745,8 @@
       <c r="B86" t="s">
         <v>16</v>
       </c>
-      <c r="C86">
-        <v>2020</v>
+      <c r="C86" s="2">
+        <v>43831</v>
       </c>
       <c r="D86">
         <v>33.9</v>
@@ -2764,8 +2768,8 @@
       <c r="B87" t="s">
         <v>17</v>
       </c>
-      <c r="C87">
-        <v>2014</v>
+      <c r="C87" s="2">
+        <v>41640</v>
       </c>
       <c r="D87">
         <v>384698.3</v>
@@ -2787,8 +2791,8 @@
       <c r="B88" t="s">
         <v>17</v>
       </c>
-      <c r="C88">
-        <v>2015</v>
+      <c r="C88" s="2">
+        <v>42005</v>
       </c>
       <c r="D88">
         <v>998910.4399999999</v>
@@ -2810,8 +2814,8 @@
       <c r="B89" t="s">
         <v>17</v>
       </c>
-      <c r="C89">
-        <v>2016</v>
+      <c r="C89" s="2">
+        <v>42370</v>
       </c>
       <c r="D89">
         <v>1301178.85</v>
@@ -2833,8 +2837,8 @@
       <c r="B90" t="s">
         <v>17</v>
       </c>
-      <c r="C90">
-        <v>2017</v>
+      <c r="C90" s="2">
+        <v>42736</v>
       </c>
       <c r="D90">
         <v>665690.49</v>
@@ -2856,8 +2860,8 @@
       <c r="B91" t="s">
         <v>17</v>
       </c>
-      <c r="C91">
-        <v>2018</v>
+      <c r="C91" s="2">
+        <v>43101</v>
       </c>
       <c r="D91">
         <v>701267.3100000001</v>
@@ -2879,8 +2883,8 @@
       <c r="B92" t="s">
         <v>17</v>
       </c>
-      <c r="C92">
-        <v>2019</v>
+      <c r="C92" s="2">
+        <v>43466</v>
       </c>
       <c r="D92">
         <v>589002.22</v>
@@ -2899,8 +2903,8 @@
       <c r="B93" t="s">
         <v>17</v>
       </c>
-      <c r="C93">
-        <v>2020</v>
+      <c r="C93" s="2">
+        <v>43831</v>
       </c>
       <c r="D93">
         <v>585002.05</v>
@@ -2922,8 +2926,8 @@
       <c r="B94" t="s">
         <v>17</v>
       </c>
-      <c r="C94">
-        <v>2021</v>
+      <c r="C94" s="2">
+        <v>44197</v>
       </c>
       <c r="D94">
         <v>334546.52</v>
@@ -2942,8 +2946,8 @@
       <c r="B95" t="s">
         <v>17</v>
       </c>
-      <c r="C95">
-        <v>2022</v>
+      <c r="C95" s="2">
+        <v>44562</v>
       </c>
       <c r="D95">
         <v>750000</v>
@@ -2962,8 +2966,8 @@
       <c r="B96" t="s">
         <v>17</v>
       </c>
-      <c r="C96">
-        <v>2023</v>
+      <c r="C96" s="2">
+        <v>44927</v>
       </c>
       <c r="D96">
         <v>1319272.27</v>
@@ -2985,8 +2989,8 @@
       <c r="B97" t="s">
         <v>18</v>
       </c>
-      <c r="C97">
-        <v>2014</v>
+      <c r="C97" s="2">
+        <v>41640</v>
       </c>
       <c r="D97">
         <v>2216430.52</v>
@@ -3008,8 +3012,8 @@
       <c r="B98" t="s">
         <v>18</v>
       </c>
-      <c r="C98">
-        <v>2015</v>
+      <c r="C98" s="2">
+        <v>42005</v>
       </c>
       <c r="D98">
         <v>4840046.54</v>
@@ -3031,8 +3035,8 @@
       <c r="B99" t="s">
         <v>18</v>
       </c>
-      <c r="C99">
-        <v>2016</v>
+      <c r="C99" s="2">
+        <v>42370</v>
       </c>
       <c r="D99">
         <v>1754871.04</v>
@@ -3054,8 +3058,8 @@
       <c r="B100" t="s">
         <v>18</v>
       </c>
-      <c r="C100">
-        <v>2017</v>
+      <c r="C100" s="2">
+        <v>42736</v>
       </c>
       <c r="D100">
         <v>994315.54</v>
@@ -3077,8 +3081,8 @@
       <c r="B101" t="s">
         <v>18</v>
       </c>
-      <c r="C101">
-        <v>2018</v>
+      <c r="C101" s="2">
+        <v>43101</v>
       </c>
       <c r="D101">
         <v>676654.27</v>
@@ -3100,8 +3104,8 @@
       <c r="B102" t="s">
         <v>18</v>
       </c>
-      <c r="C102">
-        <v>2019</v>
+      <c r="C102" s="2">
+        <v>43466</v>
       </c>
       <c r="D102">
         <v>68197.39999999999</v>
@@ -3120,8 +3124,8 @@
       <c r="B103" t="s">
         <v>18</v>
       </c>
-      <c r="C103">
-        <v>2020</v>
+      <c r="C103" s="2">
+        <v>43831</v>
       </c>
       <c r="D103">
         <v>37868</v>
@@ -3140,8 +3144,8 @@
       <c r="B104" t="s">
         <v>18</v>
       </c>
-      <c r="C104">
-        <v>2021</v>
+      <c r="C104" s="2">
+        <v>44197</v>
       </c>
       <c r="D104">
         <v>88611.98</v>
@@ -3160,8 +3164,8 @@
       <c r="B105" t="s">
         <v>18</v>
       </c>
-      <c r="C105">
-        <v>2022</v>
+      <c r="C105" s="2">
+        <v>44562</v>
       </c>
       <c r="D105">
         <v>-16</v>
@@ -3180,8 +3184,8 @@
       <c r="B106" t="s">
         <v>19</v>
       </c>
-      <c r="C106">
-        <v>2016</v>
+      <c r="C106" s="2">
+        <v>42370</v>
       </c>
       <c r="D106">
         <v>155901.89</v>
@@ -3203,8 +3207,8 @@
       <c r="B107" t="s">
         <v>19</v>
       </c>
-      <c r="C107">
-        <v>2017</v>
+      <c r="C107" s="2">
+        <v>42736</v>
       </c>
       <c r="D107">
         <v>58633.28</v>
@@ -3226,8 +3230,8 @@
       <c r="B108" t="s">
         <v>20</v>
       </c>
-      <c r="C108">
-        <v>2018</v>
+      <c r="C108" s="2">
+        <v>43101</v>
       </c>
       <c r="D108">
         <v>2708.55</v>
@@ -3246,8 +3250,8 @@
       <c r="B109" t="s">
         <v>20</v>
       </c>
-      <c r="C109">
-        <v>2021</v>
+      <c r="C109" s="2">
+        <v>44197</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3266,8 +3270,8 @@
       <c r="B110" t="s">
         <v>20</v>
       </c>
-      <c r="C110">
-        <v>2022</v>
+      <c r="C110" s="2">
+        <v>44562</v>
       </c>
       <c r="D110">
         <v>351728.09</v>
@@ -3289,8 +3293,8 @@
       <c r="B111" t="s">
         <v>20</v>
       </c>
-      <c r="C111">
-        <v>2023</v>
+      <c r="C111" s="2">
+        <v>44927</v>
       </c>
       <c r="D111">
         <v>646254</v>
@@ -3312,8 +3316,8 @@
       <c r="B112" t="s">
         <v>21</v>
       </c>
-      <c r="C112">
-        <v>2022</v>
+      <c r="C112" s="2">
+        <v>44562</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3332,8 +3336,8 @@
       <c r="B113" t="s">
         <v>22</v>
       </c>
-      <c r="C113">
-        <v>2014</v>
+      <c r="C113" s="2">
+        <v>41640</v>
       </c>
       <c r="D113">
         <v>360824.5</v>
@@ -3355,8 +3359,8 @@
       <c r="B114" t="s">
         <v>22</v>
       </c>
-      <c r="C114">
-        <v>2015</v>
+      <c r="C114" s="2">
+        <v>42005</v>
       </c>
       <c r="D114">
         <v>493370.39</v>
@@ -3378,8 +3382,8 @@
       <c r="B115" t="s">
         <v>22</v>
       </c>
-      <c r="C115">
-        <v>2016</v>
+      <c r="C115" s="2">
+        <v>42370</v>
       </c>
       <c r="D115">
         <v>1032431.11</v>
@@ -3401,8 +3405,8 @@
       <c r="B116" t="s">
         <v>22</v>
       </c>
-      <c r="C116">
-        <v>2017</v>
+      <c r="C116" s="2">
+        <v>42736</v>
       </c>
       <c r="D116">
         <v>284560.98</v>
@@ -3424,8 +3428,8 @@
       <c r="B117" t="s">
         <v>22</v>
       </c>
-      <c r="C117">
-        <v>2018</v>
+      <c r="C117" s="2">
+        <v>43101</v>
       </c>
       <c r="D117">
         <v>352713.59</v>
@@ -3447,8 +3451,8 @@
       <c r="B118" t="s">
         <v>22</v>
       </c>
-      <c r="C118">
-        <v>2019</v>
+      <c r="C118" s="2">
+        <v>43466</v>
       </c>
       <c r="D118">
         <v>820178.6800000001</v>
@@ -3467,8 +3471,8 @@
       <c r="B119" t="s">
         <v>22</v>
       </c>
-      <c r="C119">
-        <v>2020</v>
+      <c r="C119" s="2">
+        <v>43831</v>
       </c>
       <c r="D119">
         <v>683687.58</v>
@@ -3487,8 +3491,8 @@
       <c r="B120" t="s">
         <v>22</v>
       </c>
-      <c r="C120">
-        <v>2021</v>
+      <c r="C120" s="2">
+        <v>44197</v>
       </c>
       <c r="D120">
         <v>283664.83</v>
@@ -3507,8 +3511,8 @@
       <c r="B121" t="s">
         <v>22</v>
       </c>
-      <c r="C121">
-        <v>2022</v>
+      <c r="C121" s="2">
+        <v>44562</v>
       </c>
       <c r="D121">
         <v>194198.17</v>
@@ -3527,8 +3531,8 @@
       <c r="B122" t="s">
         <v>22</v>
       </c>
-      <c r="C122">
-        <v>2023</v>
+      <c r="C122" s="2">
+        <v>44927</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3547,8 +3551,8 @@
       <c r="B123" t="s">
         <v>23</v>
       </c>
-      <c r="C123">
-        <v>2014</v>
+      <c r="C123" s="2">
+        <v>41640</v>
       </c>
       <c r="D123">
         <v>273415.75</v>
@@ -3570,8 +3574,8 @@
       <c r="B124" t="s">
         <v>23</v>
       </c>
-      <c r="C124">
-        <v>2015</v>
+      <c r="C124" s="2">
+        <v>42005</v>
       </c>
       <c r="D124">
         <v>707310.71</v>
@@ -3593,8 +3597,8 @@
       <c r="B125" t="s">
         <v>23</v>
       </c>
-      <c r="C125">
-        <v>2016</v>
+      <c r="C125" s="2">
+        <v>42370</v>
       </c>
       <c r="D125">
         <v>2580748.88</v>
@@ -3616,8 +3620,8 @@
       <c r="B126" t="s">
         <v>23</v>
       </c>
-      <c r="C126">
-        <v>2017</v>
+      <c r="C126" s="2">
+        <v>42736</v>
       </c>
       <c r="D126">
         <v>1182761.28</v>
@@ -3639,8 +3643,8 @@
       <c r="B127" t="s">
         <v>23</v>
       </c>
-      <c r="C127">
-        <v>2018</v>
+      <c r="C127" s="2">
+        <v>43101</v>
       </c>
       <c r="D127">
         <v>1584760.57</v>
@@ -3662,8 +3666,8 @@
       <c r="B128" t="s">
         <v>23</v>
       </c>
-      <c r="C128">
-        <v>2019</v>
+      <c r="C128" s="2">
+        <v>43466</v>
       </c>
       <c r="D128">
         <v>631411.09</v>
@@ -3682,8 +3686,8 @@
       <c r="B129" t="s">
         <v>23</v>
       </c>
-      <c r="C129">
-        <v>2020</v>
+      <c r="C129" s="2">
+        <v>43831</v>
       </c>
       <c r="D129">
         <v>280129.53</v>
@@ -3705,8 +3709,8 @@
       <c r="B130" t="s">
         <v>23</v>
       </c>
-      <c r="C130">
-        <v>2021</v>
+      <c r="C130" s="2">
+        <v>44197</v>
       </c>
       <c r="D130">
         <v>499999.69</v>
@@ -3725,8 +3729,8 @@
       <c r="B131" t="s">
         <v>23</v>
       </c>
-      <c r="C131">
-        <v>2022</v>
+      <c r="C131" s="2">
+        <v>44562</v>
       </c>
       <c r="D131">
         <v>649449.4399999999</v>
@@ -3745,8 +3749,8 @@
       <c r="B132" t="s">
         <v>23</v>
       </c>
-      <c r="C132">
-        <v>2023</v>
+      <c r="C132" s="2">
+        <v>44927</v>
       </c>
       <c r="D132">
         <v>1061796.79</v>
@@ -3768,8 +3772,8 @@
       <c r="B133" t="s">
         <v>24</v>
       </c>
-      <c r="C133">
-        <v>2014</v>
+      <c r="C133" s="2">
+        <v>41640</v>
       </c>
       <c r="D133">
         <v>2559682.35</v>
@@ -3791,8 +3795,8 @@
       <c r="B134" t="s">
         <v>24</v>
       </c>
-      <c r="C134">
-        <v>2015</v>
+      <c r="C134" s="2">
+        <v>42005</v>
       </c>
       <c r="D134">
         <v>1684487.28</v>
@@ -3814,8 +3818,8 @@
       <c r="B135" t="s">
         <v>24</v>
       </c>
-      <c r="C135">
-        <v>2016</v>
+      <c r="C135" s="2">
+        <v>42370</v>
       </c>
       <c r="D135">
         <v>2101767.07</v>
@@ -3837,8 +3841,8 @@
       <c r="B136" t="s">
         <v>24</v>
       </c>
-      <c r="C136">
-        <v>2017</v>
+      <c r="C136" s="2">
+        <v>42736</v>
       </c>
       <c r="D136">
         <v>1360919.25</v>
@@ -3860,8 +3864,8 @@
       <c r="B137" t="s">
         <v>24</v>
       </c>
-      <c r="C137">
-        <v>2018</v>
+      <c r="C137" s="2">
+        <v>43101</v>
       </c>
       <c r="D137">
         <v>2738122.29</v>
@@ -3883,8 +3887,8 @@
       <c r="B138" t="s">
         <v>24</v>
       </c>
-      <c r="C138">
-        <v>2019</v>
+      <c r="C138" s="2">
+        <v>43466</v>
       </c>
       <c r="D138">
         <v>2244909.46</v>
@@ -3903,8 +3907,8 @@
       <c r="B139" t="s">
         <v>24</v>
       </c>
-      <c r="C139">
-        <v>2020</v>
+      <c r="C139" s="2">
+        <v>43831</v>
       </c>
       <c r="D139">
         <v>1837476.8</v>
@@ -3926,8 +3930,8 @@
       <c r="B140" t="s">
         <v>24</v>
       </c>
-      <c r="C140">
-        <v>2021</v>
+      <c r="C140" s="2">
+        <v>44197</v>
       </c>
       <c r="D140">
         <v>1699617.73</v>
@@ -3946,8 +3950,8 @@
       <c r="B141" t="s">
         <v>24</v>
       </c>
-      <c r="C141">
-        <v>2022</v>
+      <c r="C141" s="2">
+        <v>44562</v>
       </c>
       <c r="D141">
         <v>1736420.59</v>
@@ -3966,8 +3970,8 @@
       <c r="B142" t="s">
         <v>24</v>
       </c>
-      <c r="C142">
-        <v>2023</v>
+      <c r="C142" s="2">
+        <v>44927</v>
       </c>
       <c r="D142">
         <v>1635795.06</v>
@@ -3989,8 +3993,8 @@
       <c r="B143" t="s">
         <v>25</v>
       </c>
-      <c r="C143">
-        <v>2014</v>
+      <c r="C143" s="2">
+        <v>41640</v>
       </c>
       <c r="D143">
         <v>663121.22</v>
@@ -4012,8 +4016,8 @@
       <c r="B144" t="s">
         <v>25</v>
       </c>
-      <c r="C144">
-        <v>2015</v>
+      <c r="C144" s="2">
+        <v>42005</v>
       </c>
       <c r="D144">
         <v>1458955.45</v>
@@ -4035,8 +4039,8 @@
       <c r="B145" t="s">
         <v>25</v>
       </c>
-      <c r="C145">
-        <v>2016</v>
+      <c r="C145" s="2">
+        <v>42370</v>
       </c>
       <c r="D145">
         <v>532034.41</v>
@@ -4058,8 +4062,8 @@
       <c r="B146" t="s">
         <v>25</v>
       </c>
-      <c r="C146">
-        <v>2017</v>
+      <c r="C146" s="2">
+        <v>42736</v>
       </c>
       <c r="D146">
         <v>866432.74</v>
@@ -4081,8 +4085,8 @@
       <c r="B147" t="s">
         <v>25</v>
       </c>
-      <c r="C147">
-        <v>2018</v>
+      <c r="C147" s="2">
+        <v>43101</v>
       </c>
       <c r="D147">
         <v>528136.58</v>
@@ -4104,8 +4108,8 @@
       <c r="B148" t="s">
         <v>25</v>
       </c>
-      <c r="C148">
-        <v>2019</v>
+      <c r="C148" s="2">
+        <v>43466</v>
       </c>
       <c r="D148">
         <v>1498589.41</v>
@@ -4124,8 +4128,8 @@
       <c r="B149" t="s">
         <v>25</v>
       </c>
-      <c r="C149">
-        <v>2020</v>
+      <c r="C149" s="2">
+        <v>43831</v>
       </c>
       <c r="D149">
         <v>2457822.15</v>
@@ -4147,8 +4151,8 @@
       <c r="B150" t="s">
         <v>25</v>
       </c>
-      <c r="C150">
-        <v>2021</v>
+      <c r="C150" s="2">
+        <v>44197</v>
       </c>
       <c r="D150">
         <v>1253391.53</v>
@@ -4167,8 +4171,8 @@
       <c r="B151" t="s">
         <v>25</v>
       </c>
-      <c r="C151">
-        <v>2022</v>
+      <c r="C151" s="2">
+        <v>44562</v>
       </c>
       <c r="D151">
         <v>3565140.9</v>
@@ -4187,8 +4191,8 @@
       <c r="B152" t="s">
         <v>25</v>
       </c>
-      <c r="C152">
-        <v>2023</v>
+      <c r="C152" s="2">
+        <v>44927</v>
       </c>
       <c r="D152">
         <v>4139967.65</v>
@@ -4210,8 +4214,8 @@
       <c r="B153" t="s">
         <v>26</v>
       </c>
-      <c r="C153">
-        <v>2014</v>
+      <c r="C153" s="2">
+        <v>41640</v>
       </c>
       <c r="D153">
         <v>1076805.75</v>
@@ -4233,8 +4237,8 @@
       <c r="B154" t="s">
         <v>26</v>
       </c>
-      <c r="C154">
-        <v>2015</v>
+      <c r="C154" s="2">
+        <v>42005</v>
       </c>
       <c r="D154">
         <v>1495715.76</v>
@@ -4256,8 +4260,8 @@
       <c r="B155" t="s">
         <v>26</v>
       </c>
-      <c r="C155">
-        <v>2016</v>
+      <c r="C155" s="2">
+        <v>42370</v>
       </c>
       <c r="D155">
         <v>1216164.75</v>
@@ -4279,8 +4283,8 @@
       <c r="B156" t="s">
         <v>26</v>
       </c>
-      <c r="C156">
-        <v>2017</v>
+      <c r="C156" s="2">
+        <v>42736</v>
       </c>
       <c r="D156">
         <v>1105120.79</v>
@@ -4302,8 +4306,8 @@
       <c r="B157" t="s">
         <v>26</v>
       </c>
-      <c r="C157">
-        <v>2018</v>
+      <c r="C157" s="2">
+        <v>43101</v>
       </c>
       <c r="D157">
         <v>515536.17</v>
@@ -4325,8 +4329,8 @@
       <c r="B158" t="s">
         <v>26</v>
       </c>
-      <c r="C158">
-        <v>2019</v>
+      <c r="C158" s="2">
+        <v>43466</v>
       </c>
       <c r="D158">
         <v>2402156.28</v>
@@ -4345,8 +4349,8 @@
       <c r="B159" t="s">
         <v>26</v>
       </c>
-      <c r="C159">
-        <v>2020</v>
+      <c r="C159" s="2">
+        <v>43831</v>
       </c>
       <c r="D159">
         <v>1903910.69</v>
@@ -4368,8 +4372,8 @@
       <c r="B160" t="s">
         <v>26</v>
       </c>
-      <c r="C160">
-        <v>2021</v>
+      <c r="C160" s="2">
+        <v>44197</v>
       </c>
       <c r="D160">
         <v>3101478.21</v>
@@ -4388,8 +4392,8 @@
       <c r="B161" t="s">
         <v>26</v>
       </c>
-      <c r="C161">
-        <v>2022</v>
+      <c r="C161" s="2">
+        <v>44562</v>
       </c>
       <c r="D161">
         <v>1495594.85</v>
@@ -4408,8 +4412,8 @@
       <c r="B162" t="s">
         <v>26</v>
       </c>
-      <c r="C162">
-        <v>2023</v>
+      <c r="C162" s="2">
+        <v>44927</v>
       </c>
       <c r="D162">
         <v>930465.45</v>
@@ -4431,8 +4435,8 @@
       <c r="B163" t="s">
         <v>27</v>
       </c>
-      <c r="C163">
-        <v>2014</v>
+      <c r="C163" s="2">
+        <v>41640</v>
       </c>
       <c r="D163">
         <v>579731.95</v>
@@ -4454,8 +4458,8 @@
       <c r="B164" t="s">
         <v>27</v>
       </c>
-      <c r="C164">
-        <v>2015</v>
+      <c r="C164" s="2">
+        <v>42005</v>
       </c>
       <c r="D164">
         <v>1216984.97</v>
@@ -4477,8 +4481,8 @@
       <c r="B165" t="s">
         <v>27</v>
       </c>
-      <c r="C165">
-        <v>2016</v>
+      <c r="C165" s="2">
+        <v>42370</v>
       </c>
       <c r="D165">
         <v>1132190.65</v>
@@ -4500,8 +4504,8 @@
       <c r="B166" t="s">
         <v>27</v>
       </c>
-      <c r="C166">
-        <v>2017</v>
+      <c r="C166" s="2">
+        <v>42736</v>
       </c>
       <c r="D166">
         <v>1174709.67</v>
@@ -4523,8 +4527,8 @@
       <c r="B167" t="s">
         <v>27</v>
       </c>
-      <c r="C167">
-        <v>2018</v>
+      <c r="C167" s="2">
+        <v>43101</v>
       </c>
       <c r="D167">
         <v>860519.12</v>
@@ -4546,8 +4550,8 @@
       <c r="B168" t="s">
         <v>27</v>
       </c>
-      <c r="C168">
-        <v>2019</v>
+      <c r="C168" s="2">
+        <v>43466</v>
       </c>
       <c r="D168">
         <v>955302.7</v>
@@ -4566,8 +4570,8 @@
       <c r="B169" t="s">
         <v>27</v>
       </c>
-      <c r="C169">
-        <v>2020</v>
+      <c r="C169" s="2">
+        <v>43831</v>
       </c>
       <c r="D169">
         <v>1309635.71</v>
@@ -4586,8 +4590,8 @@
       <c r="B170" t="s">
         <v>27</v>
       </c>
-      <c r="C170">
-        <v>2021</v>
+      <c r="C170" s="2">
+        <v>44197</v>
       </c>
       <c r="D170">
         <v>1147882.59</v>
@@ -4606,8 +4610,8 @@
       <c r="B171" t="s">
         <v>27</v>
       </c>
-      <c r="C171">
-        <v>2022</v>
+      <c r="C171" s="2">
+        <v>44562</v>
       </c>
       <c r="D171">
         <v>912107.15</v>
@@ -4629,8 +4633,8 @@
       <c r="B172" t="s">
         <v>27</v>
       </c>
-      <c r="C172">
-        <v>2023</v>
+      <c r="C172" s="2">
+        <v>44927</v>
       </c>
       <c r="D172">
         <v>1312343.66</v>
@@ -4649,8 +4653,8 @@
       <c r="B173" t="s">
         <v>28</v>
       </c>
-      <c r="C173">
-        <v>2015</v>
+      <c r="C173" s="2">
+        <v>42005</v>
       </c>
       <c r="D173">
         <v>5000</v>
@@ -4672,8 +4676,8 @@
       <c r="B174" t="s">
         <v>29</v>
       </c>
-      <c r="C174">
-        <v>2017</v>
+      <c r="C174" s="2">
+        <v>42736</v>
       </c>
       <c r="D174">
         <v>84801.22</v>
@@ -4695,8 +4699,8 @@
       <c r="B175" t="s">
         <v>29</v>
       </c>
-      <c r="C175">
-        <v>2021</v>
+      <c r="C175" s="2">
+        <v>44197</v>
       </c>
       <c r="D175">
         <v>34348.6</v>
@@ -4715,8 +4719,8 @@
       <c r="B176" t="s">
         <v>30</v>
       </c>
-      <c r="C176">
-        <v>2014</v>
+      <c r="C176" s="2">
+        <v>41640</v>
       </c>
       <c r="D176">
         <v>3188933.63</v>
@@ -4738,8 +4742,8 @@
       <c r="B177" t="s">
         <v>30</v>
       </c>
-      <c r="C177">
-        <v>2015</v>
+      <c r="C177" s="2">
+        <v>42005</v>
       </c>
       <c r="D177">
         <v>2209823.93</v>
@@ -4761,8 +4765,8 @@
       <c r="B178" t="s">
         <v>30</v>
       </c>
-      <c r="C178">
-        <v>2016</v>
+      <c r="C178" s="2">
+        <v>42370</v>
       </c>
       <c r="D178">
         <v>2076925.86</v>
@@ -4784,8 +4788,8 @@
       <c r="B179" t="s">
         <v>30</v>
       </c>
-      <c r="C179">
-        <v>2017</v>
+      <c r="C179" s="2">
+        <v>42736</v>
       </c>
       <c r="D179">
         <v>2135517.42</v>
@@ -4807,8 +4811,8 @@
       <c r="B180" t="s">
         <v>30</v>
       </c>
-      <c r="C180">
-        <v>2018</v>
+      <c r="C180" s="2">
+        <v>43101</v>
       </c>
       <c r="D180">
         <v>837927.59</v>
@@ -4830,8 +4834,8 @@
       <c r="B181" t="s">
         <v>30</v>
       </c>
-      <c r="C181">
-        <v>2019</v>
+      <c r="C181" s="2">
+        <v>43466</v>
       </c>
       <c r="D181">
         <v>3435213.05</v>
@@ -4850,8 +4854,8 @@
       <c r="B182" t="s">
         <v>30</v>
       </c>
-      <c r="C182">
-        <v>2020</v>
+      <c r="C182" s="2">
+        <v>43831</v>
       </c>
       <c r="D182">
         <v>5020462</v>
@@ -4873,8 +4877,8 @@
       <c r="B183" t="s">
         <v>30</v>
       </c>
-      <c r="C183">
-        <v>2021</v>
+      <c r="C183" s="2">
+        <v>44197</v>
       </c>
       <c r="D183">
         <v>3908492.32</v>
@@ -4893,8 +4897,8 @@
       <c r="B184" t="s">
         <v>30</v>
       </c>
-      <c r="C184">
-        <v>2022</v>
+      <c r="C184" s="2">
+        <v>44562</v>
       </c>
       <c r="D184">
         <v>4545074.4</v>
@@ -4913,8 +4917,8 @@
       <c r="B185" t="s">
         <v>30</v>
       </c>
-      <c r="C185">
-        <v>2023</v>
+      <c r="C185" s="2">
+        <v>44927</v>
       </c>
       <c r="D185">
         <v>2703434.77</v>
@@ -4936,8 +4940,8 @@
       <c r="B186" t="s">
         <v>31</v>
       </c>
-      <c r="C186">
-        <v>2014</v>
+      <c r="C186" s="2">
+        <v>41640</v>
       </c>
       <c r="D186">
         <v>58314.74</v>
@@ -4956,8 +4960,8 @@
       <c r="B187" t="s">
         <v>31</v>
       </c>
-      <c r="C187">
-        <v>2015</v>
+      <c r="C187" s="2">
+        <v>42005</v>
       </c>
       <c r="D187">
         <v>23266.91</v>
@@ -4976,8 +4980,8 @@
       <c r="B188" t="s">
         <v>32</v>
       </c>
-      <c r="C188">
-        <v>2014</v>
+      <c r="C188" s="2">
+        <v>41640</v>
       </c>
       <c r="D188">
         <v>227865.49</v>
@@ -4999,8 +5003,8 @@
       <c r="B189" t="s">
         <v>32</v>
       </c>
-      <c r="C189">
-        <v>2015</v>
+      <c r="C189" s="2">
+        <v>42005</v>
       </c>
       <c r="D189">
         <v>1758919.91</v>
@@ -5022,8 +5026,8 @@
       <c r="B190" t="s">
         <v>32</v>
       </c>
-      <c r="C190">
-        <v>2016</v>
+      <c r="C190" s="2">
+        <v>42370</v>
       </c>
       <c r="D190">
         <v>908159.83</v>
@@ -5045,8 +5049,8 @@
       <c r="B191" t="s">
         <v>32</v>
       </c>
-      <c r="C191">
-        <v>2017</v>
+      <c r="C191" s="2">
+        <v>42736</v>
       </c>
       <c r="D191">
         <v>363370.76</v>
@@ -5068,8 +5072,8 @@
       <c r="B192" t="s">
         <v>32</v>
       </c>
-      <c r="C192">
-        <v>2018</v>
+      <c r="C192" s="2">
+        <v>43101</v>
       </c>
       <c r="D192">
         <v>741582.84</v>
@@ -5091,8 +5095,8 @@
       <c r="B193" t="s">
         <v>32</v>
       </c>
-      <c r="C193">
-        <v>2021</v>
+      <c r="C193" s="2">
+        <v>44197</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -5111,8 +5115,8 @@
       <c r="B194" t="s">
         <v>33</v>
       </c>
-      <c r="C194">
-        <v>2014</v>
+      <c r="C194" s="2">
+        <v>41640</v>
       </c>
       <c r="D194">
         <v>901100.59</v>
@@ -5134,8 +5138,8 @@
       <c r="B195" t="s">
         <v>33</v>
       </c>
-      <c r="C195">
-        <v>2015</v>
+      <c r="C195" s="2">
+        <v>42005</v>
       </c>
       <c r="D195">
         <v>1011467.41</v>
@@ -5157,8 +5161,8 @@
       <c r="B196" t="s">
         <v>33</v>
       </c>
-      <c r="C196">
-        <v>2016</v>
+      <c r="C196" s="2">
+        <v>42370</v>
       </c>
       <c r="D196">
         <v>714371.11</v>
@@ -5180,8 +5184,8 @@
       <c r="B197" t="s">
         <v>33</v>
       </c>
-      <c r="C197">
-        <v>2017</v>
+      <c r="C197" s="2">
+        <v>42736</v>
       </c>
       <c r="D197">
         <v>998930.3</v>
@@ -5203,8 +5207,8 @@
       <c r="B198" t="s">
         <v>33</v>
       </c>
-      <c r="C198">
-        <v>2018</v>
+      <c r="C198" s="2">
+        <v>43101</v>
       </c>
       <c r="D198">
         <v>1171395.37</v>
@@ -5226,8 +5230,8 @@
       <c r="B199" t="s">
         <v>33</v>
       </c>
-      <c r="C199">
-        <v>2019</v>
+      <c r="C199" s="2">
+        <v>43466</v>
       </c>
       <c r="D199">
         <v>500000</v>
@@ -5246,8 +5250,8 @@
       <c r="B200" t="s">
         <v>33</v>
       </c>
-      <c r="C200">
-        <v>2020</v>
+      <c r="C200" s="2">
+        <v>43831</v>
       </c>
       <c r="D200">
         <v>826222.42</v>
@@ -5269,8 +5273,8 @@
       <c r="B201" t="s">
         <v>33</v>
       </c>
-      <c r="C201">
-        <v>2021</v>
+      <c r="C201" s="2">
+        <v>44197</v>
       </c>
       <c r="D201">
         <v>650988.5600000001</v>
@@ -5289,8 +5293,8 @@
       <c r="B202" t="s">
         <v>33</v>
       </c>
-      <c r="C202">
-        <v>2022</v>
+      <c r="C202" s="2">
+        <v>44562</v>
       </c>
       <c r="D202">
         <v>1277070.87</v>
@@ -5309,8 +5313,8 @@
       <c r="B203" t="s">
         <v>33</v>
       </c>
-      <c r="C203">
-        <v>2023</v>
+      <c r="C203" s="2">
+        <v>44927</v>
       </c>
       <c r="D203">
         <v>1417720.02</v>
@@ -5332,8 +5336,8 @@
       <c r="B204" t="s">
         <v>34</v>
       </c>
-      <c r="C204">
-        <v>2014</v>
+      <c r="C204" s="2">
+        <v>41640</v>
       </c>
       <c r="D204">
         <v>2553935.85</v>
@@ -5355,8 +5359,8 @@
       <c r="B205" t="s">
         <v>34</v>
       </c>
-      <c r="C205">
-        <v>2015</v>
+      <c r="C205" s="2">
+        <v>42005</v>
       </c>
       <c r="D205">
         <v>3580667.67</v>
@@ -5378,8 +5382,8 @@
       <c r="B206" t="s">
         <v>34</v>
       </c>
-      <c r="C206">
-        <v>2016</v>
+      <c r="C206" s="2">
+        <v>42370</v>
       </c>
       <c r="D206">
         <v>1371651.43</v>
@@ -5401,8 +5405,8 @@
       <c r="B207" t="s">
         <v>34</v>
       </c>
-      <c r="C207">
-        <v>2017</v>
+      <c r="C207" s="2">
+        <v>42736</v>
       </c>
       <c r="D207">
         <v>1508054.93</v>
@@ -5424,8 +5428,8 @@
       <c r="B208" t="s">
         <v>34</v>
       </c>
-      <c r="C208">
-        <v>2018</v>
+      <c r="C208" s="2">
+        <v>43101</v>
       </c>
       <c r="D208">
         <v>3023956.32</v>
@@ -5447,8 +5451,8 @@
       <c r="B209" t="s">
         <v>34</v>
       </c>
-      <c r="C209">
-        <v>2019</v>
+      <c r="C209" s="2">
+        <v>43466</v>
       </c>
       <c r="D209">
         <v>2994383.06</v>
@@ -5467,8 +5471,8 @@
       <c r="B210" t="s">
         <v>34</v>
       </c>
-      <c r="C210">
-        <v>2020</v>
+      <c r="C210" s="2">
+        <v>43831</v>
       </c>
       <c r="D210">
         <v>35619.12</v>
@@ -5487,8 +5491,8 @@
       <c r="B211" t="s">
         <v>34</v>
       </c>
-      <c r="C211">
-        <v>2021</v>
+      <c r="C211" s="2">
+        <v>44197</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5507,8 +5511,8 @@
       <c r="B212" t="s">
         <v>34</v>
       </c>
-      <c r="C212">
-        <v>2022</v>
+      <c r="C212" s="2">
+        <v>44562</v>
       </c>
       <c r="D212">
         <v>490.68</v>
@@ -5527,8 +5531,8 @@
       <c r="B213" t="s">
         <v>35</v>
       </c>
-      <c r="C213">
-        <v>2014</v>
+      <c r="C213" s="2">
+        <v>41640</v>
       </c>
       <c r="D213">
         <v>2259899.5</v>
@@ -5550,8 +5554,8 @@
       <c r="B214" t="s">
         <v>35</v>
       </c>
-      <c r="C214">
-        <v>2015</v>
+      <c r="C214" s="2">
+        <v>42005</v>
       </c>
       <c r="D214">
         <v>983978.26</v>
@@ -5573,8 +5577,8 @@
       <c r="B215" t="s">
         <v>35</v>
       </c>
-      <c r="C215">
-        <v>2016</v>
+      <c r="C215" s="2">
+        <v>42370</v>
       </c>
       <c r="D215">
         <v>68855.75999999999</v>
@@ -5596,8 +5600,8 @@
       <c r="B216" t="s">
         <v>35</v>
       </c>
-      <c r="C216">
-        <v>2017</v>
+      <c r="C216" s="2">
+        <v>42736</v>
       </c>
       <c r="D216">
         <v>7801514.26</v>
@@ -5619,8 +5623,8 @@
       <c r="B217" t="s">
         <v>35</v>
       </c>
-      <c r="C217">
-        <v>2018</v>
+      <c r="C217" s="2">
+        <v>43101</v>
       </c>
       <c r="D217">
         <v>543049.64</v>
@@ -5642,8 +5646,8 @@
       <c r="B218" t="s">
         <v>35</v>
       </c>
-      <c r="C218">
-        <v>2019</v>
+      <c r="C218" s="2">
+        <v>43466</v>
       </c>
       <c r="D218">
         <v>563242.34</v>
@@ -5662,8 +5666,8 @@
       <c r="B219" t="s">
         <v>35</v>
       </c>
-      <c r="C219">
-        <v>2020</v>
+      <c r="C219" s="2">
+        <v>43831</v>
       </c>
       <c r="D219">
         <v>204838.14</v>
@@ -5685,8 +5689,8 @@
       <c r="B220" t="s">
         <v>35</v>
       </c>
-      <c r="C220">
-        <v>2021</v>
+      <c r="C220" s="2">
+        <v>44197</v>
       </c>
       <c r="D220">
         <v>3920452.28</v>
@@ -5705,8 +5709,8 @@
       <c r="B221" t="s">
         <v>35</v>
       </c>
-      <c r="C221">
-        <v>2022</v>
+      <c r="C221" s="2">
+        <v>44562</v>
       </c>
       <c r="D221">
         <v>26433.64</v>
@@ -5725,8 +5729,8 @@
       <c r="B222" t="s">
         <v>35</v>
       </c>
-      <c r="C222">
-        <v>2023</v>
+      <c r="C222" s="2">
+        <v>44927</v>
       </c>
       <c r="D222">
         <v>26137.89</v>
@@ -5748,8 +5752,8 @@
       <c r="B223" t="s">
         <v>36</v>
       </c>
-      <c r="C223">
-        <v>2014</v>
+      <c r="C223" s="2">
+        <v>41640</v>
       </c>
       <c r="D223">
         <v>1562838.05</v>
@@ -5771,8 +5775,8 @@
       <c r="B224" t="s">
         <v>36</v>
       </c>
-      <c r="C224">
-        <v>2015</v>
+      <c r="C224" s="2">
+        <v>42005</v>
       </c>
       <c r="D224">
         <v>1997295.13</v>
@@ -5794,8 +5798,8 @@
       <c r="B225" t="s">
         <v>36</v>
       </c>
-      <c r="C225">
-        <v>2016</v>
+      <c r="C225" s="2">
+        <v>42370</v>
       </c>
       <c r="D225">
         <v>1207541.71</v>
@@ -5817,8 +5821,8 @@
       <c r="B226" t="s">
         <v>36</v>
       </c>
-      <c r="C226">
-        <v>2017</v>
+      <c r="C226" s="2">
+        <v>42736</v>
       </c>
       <c r="D226">
         <v>363890</v>
@@ -5840,8 +5844,8 @@
       <c r="B227" t="s">
         <v>36</v>
       </c>
-      <c r="C227">
-        <v>2018</v>
+      <c r="C227" s="2">
+        <v>43101</v>
       </c>
       <c r="D227">
         <v>947842.79</v>
@@ -5863,8 +5867,8 @@
       <c r="B228" t="s">
         <v>36</v>
       </c>
-      <c r="C228">
-        <v>2019</v>
+      <c r="C228" s="2">
+        <v>43466</v>
       </c>
       <c r="D228">
         <v>798450.78</v>
@@ -5883,8 +5887,8 @@
       <c r="B229" t="s">
         <v>36</v>
       </c>
-      <c r="C229">
-        <v>2020</v>
+      <c r="C229" s="2">
+        <v>43831</v>
       </c>
       <c r="D229">
         <v>1288304.98</v>
@@ -5906,8 +5910,8 @@
       <c r="B230" t="s">
         <v>36</v>
       </c>
-      <c r="C230">
-        <v>2021</v>
+      <c r="C230" s="2">
+        <v>44197</v>
       </c>
       <c r="D230">
         <v>1154146.7</v>
@@ -5926,8 +5930,8 @@
       <c r="B231" t="s">
         <v>36</v>
       </c>
-      <c r="C231">
-        <v>2022</v>
+      <c r="C231" s="2">
+        <v>44562</v>
       </c>
       <c r="D231">
         <v>363262.31</v>
@@ -5946,8 +5950,8 @@
       <c r="B232" t="s">
         <v>36</v>
       </c>
-      <c r="C232">
-        <v>2023</v>
+      <c r="C232" s="2">
+        <v>44927</v>
       </c>
       <c r="D232">
         <v>334568.1</v>
@@ -5969,8 +5973,8 @@
       <c r="B233" t="s">
         <v>37</v>
       </c>
-      <c r="C233">
-        <v>2014</v>
+      <c r="C233" s="2">
+        <v>41640</v>
       </c>
       <c r="D233">
         <v>856670.45</v>
@@ -5992,8 +5996,8 @@
       <c r="B234" t="s">
         <v>37</v>
       </c>
-      <c r="C234">
-        <v>2015</v>
+      <c r="C234" s="2">
+        <v>42005</v>
       </c>
       <c r="D234">
         <v>786498.9399999999</v>
@@ -6015,8 +6019,8 @@
       <c r="B235" t="s">
         <v>37</v>
       </c>
-      <c r="C235">
-        <v>2016</v>
+      <c r="C235" s="2">
+        <v>42370</v>
       </c>
       <c r="D235">
         <v>608604.08</v>
@@ -6038,8 +6042,8 @@
       <c r="B236" t="s">
         <v>37</v>
       </c>
-      <c r="C236">
-        <v>2017</v>
+      <c r="C236" s="2">
+        <v>42736</v>
       </c>
       <c r="D236">
         <v>626262.49</v>
@@ -6061,8 +6065,8 @@
       <c r="B237" t="s">
         <v>37</v>
       </c>
-      <c r="C237">
-        <v>2018</v>
+      <c r="C237" s="2">
+        <v>43101</v>
       </c>
       <c r="D237">
         <v>433940.03</v>
@@ -6084,8 +6088,8 @@
       <c r="B238" t="s">
         <v>37</v>
       </c>
-      <c r="C238">
-        <v>2019</v>
+      <c r="C238" s="2">
+        <v>43466</v>
       </c>
       <c r="D238">
         <v>676387.34</v>
@@ -6104,8 +6108,8 @@
       <c r="B239" t="s">
         <v>37</v>
       </c>
-      <c r="C239">
-        <v>2020</v>
+      <c r="C239" s="2">
+        <v>43831</v>
       </c>
       <c r="D239">
         <v>92353.73</v>
@@ -6127,8 +6131,8 @@
       <c r="B240" t="s">
         <v>37</v>
       </c>
-      <c r="C240">
-        <v>2021</v>
+      <c r="C240" s="2">
+        <v>44197</v>
       </c>
       <c r="D240">
         <v>273606.92</v>
@@ -6147,8 +6151,8 @@
       <c r="B241" t="s">
         <v>37</v>
       </c>
-      <c r="C241">
-        <v>2022</v>
+      <c r="C241" s="2">
+        <v>44562</v>
       </c>
       <c r="D241">
         <v>500000</v>
@@ -6167,8 +6171,8 @@
       <c r="B242" t="s">
         <v>37</v>
       </c>
-      <c r="C242">
-        <v>2023</v>
+      <c r="C242" s="2">
+        <v>44927</v>
       </c>
       <c r="D242">
         <v>180236.1</v>
@@ -6190,8 +6194,8 @@
       <c r="B243" t="s">
         <v>38</v>
       </c>
-      <c r="C243">
-        <v>2016</v>
+      <c r="C243" s="2">
+        <v>42370</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -6210,8 +6214,8 @@
       <c r="B244" t="s">
         <v>38</v>
       </c>
-      <c r="C244">
-        <v>2023</v>
+      <c r="C244" s="2">
+        <v>44927</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -6230,8 +6234,8 @@
       <c r="B245" t="s">
         <v>39</v>
       </c>
-      <c r="C245">
-        <v>2019</v>
+      <c r="C245" s="2">
+        <v>43466</v>
       </c>
       <c r="D245">
         <v>8034.85</v>
@@ -6250,8 +6254,8 @@
       <c r="B246" t="s">
         <v>40</v>
       </c>
-      <c r="C246">
-        <v>2014</v>
+      <c r="C246" s="2">
+        <v>41640</v>
       </c>
       <c r="D246">
         <v>1195</v>
@@ -6273,8 +6277,8 @@
       <c r="B247" t="s">
         <v>41</v>
       </c>
-      <c r="C247">
-        <v>2014</v>
+      <c r="C247" s="2">
+        <v>41640</v>
       </c>
       <c r="D247">
         <v>770342.33</v>
@@ -6296,8 +6300,8 @@
       <c r="B248" t="s">
         <v>41</v>
       </c>
-      <c r="C248">
-        <v>2015</v>
+      <c r="C248" s="2">
+        <v>42005</v>
       </c>
       <c r="D248">
         <v>463416.9</v>
@@ -6319,8 +6323,8 @@
       <c r="B249" t="s">
         <v>41</v>
       </c>
-      <c r="C249">
-        <v>2016</v>
+      <c r="C249" s="2">
+        <v>42370</v>
       </c>
       <c r="D249">
         <v>1897362.9</v>
@@ -6342,8 +6346,8 @@
       <c r="B250" t="s">
         <v>41</v>
       </c>
-      <c r="C250">
-        <v>2017</v>
+      <c r="C250" s="2">
+        <v>42736</v>
       </c>
       <c r="D250">
         <v>216952.35</v>
@@ -6365,8 +6369,8 @@
       <c r="B251" t="s">
         <v>41</v>
       </c>
-      <c r="C251">
-        <v>2018</v>
+      <c r="C251" s="2">
+        <v>43101</v>
       </c>
       <c r="D251">
         <v>1035997.29</v>
@@ -6388,8 +6392,8 @@
       <c r="B252" t="s">
         <v>41</v>
       </c>
-      <c r="C252">
-        <v>2019</v>
+      <c r="C252" s="2">
+        <v>43466</v>
       </c>
       <c r="D252">
         <v>2630950.86</v>
@@ -6408,8 +6412,8 @@
       <c r="B253" t="s">
         <v>41</v>
       </c>
-      <c r="C253">
-        <v>2020</v>
+      <c r="C253" s="2">
+        <v>43831</v>
       </c>
       <c r="D253">
         <v>85726.02</v>
@@ -6431,8 +6435,8 @@
       <c r="B254" t="s">
         <v>41</v>
       </c>
-      <c r="C254">
-        <v>2021</v>
+      <c r="C254" s="2">
+        <v>44197</v>
       </c>
       <c r="D254">
         <v>1734397.73</v>
@@ -6451,8 +6455,8 @@
       <c r="B255" t="s">
         <v>41</v>
       </c>
-      <c r="C255">
-        <v>2022</v>
+      <c r="C255" s="2">
+        <v>44562</v>
       </c>
       <c r="D255">
         <v>262885.16</v>
@@ -6471,8 +6475,8 @@
       <c r="B256" t="s">
         <v>41</v>
       </c>
-      <c r="C256">
-        <v>2023</v>
+      <c r="C256" s="2">
+        <v>44927</v>
       </c>
       <c r="D256">
         <v>15142.76</v>
@@ -6491,8 +6495,8 @@
       <c r="B257" t="s">
         <v>42</v>
       </c>
-      <c r="C257">
-        <v>2023</v>
+      <c r="C257" s="2">
+        <v>44927</v>
       </c>
       <c r="D257">
         <v>20774.78</v>
@@ -6514,8 +6518,8 @@
       <c r="B258" t="s">
         <v>43</v>
       </c>
-      <c r="C258">
-        <v>2014</v>
+      <c r="C258" s="2">
+        <v>41640</v>
       </c>
       <c r="D258">
         <v>926426.25</v>
@@ -6537,8 +6541,8 @@
       <c r="B259" t="s">
         <v>43</v>
       </c>
-      <c r="C259">
-        <v>2015</v>
+      <c r="C259" s="2">
+        <v>42005</v>
       </c>
       <c r="D259">
         <v>1467233.03</v>
@@ -6560,8 +6564,8 @@
       <c r="B260" t="s">
         <v>43</v>
       </c>
-      <c r="C260">
-        <v>2016</v>
+      <c r="C260" s="2">
+        <v>42370</v>
       </c>
       <c r="D260">
         <v>1670710.08</v>
@@ -6583,8 +6587,8 @@
       <c r="B261" t="s">
         <v>43</v>
       </c>
-      <c r="C261">
-        <v>2017</v>
+      <c r="C261" s="2">
+        <v>42736</v>
       </c>
       <c r="D261">
         <v>479055.1</v>
@@ -6606,8 +6610,8 @@
       <c r="B262" t="s">
         <v>43</v>
       </c>
-      <c r="C262">
-        <v>2018</v>
+      <c r="C262" s="2">
+        <v>43101</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -6626,8 +6630,8 @@
       <c r="B263" t="s">
         <v>43</v>
       </c>
-      <c r="C263">
-        <v>2020</v>
+      <c r="C263" s="2">
+        <v>43831</v>
       </c>
       <c r="D263">
         <v>-43630.53</v>
@@ -6646,8 +6650,8 @@
       <c r="B264" t="s">
         <v>43</v>
       </c>
-      <c r="C264">
-        <v>2023</v>
+      <c r="C264" s="2">
+        <v>44927</v>
       </c>
       <c r="D264">
         <v>1645133.06</v>
@@ -6666,8 +6670,8 @@
       <c r="B265" t="s">
         <v>44</v>
       </c>
-      <c r="C265">
-        <v>2022</v>
+      <c r="C265" s="2">
+        <v>44562</v>
       </c>
       <c r="D265">
         <v>35202.67</v>
@@ -6689,8 +6693,8 @@
       <c r="B266" t="s">
         <v>45</v>
       </c>
-      <c r="C266">
-        <v>2015</v>
+      <c r="C266" s="2">
+        <v>42005</v>
       </c>
       <c r="D266">
         <v>2544.98</v>
@@ -6712,8 +6716,8 @@
       <c r="B267" t="s">
         <v>46</v>
       </c>
-      <c r="C267">
-        <v>2014</v>
+      <c r="C267" s="2">
+        <v>41640</v>
       </c>
       <c r="D267">
         <v>1003383.83</v>
@@ -6735,8 +6739,8 @@
       <c r="B268" t="s">
         <v>46</v>
       </c>
-      <c r="C268">
-        <v>2015</v>
+      <c r="C268" s="2">
+        <v>42005</v>
       </c>
       <c r="D268">
         <v>815760.8199999999</v>
@@ -6758,8 +6762,8 @@
       <c r="B269" t="s">
         <v>46</v>
       </c>
-      <c r="C269">
-        <v>2016</v>
+      <c r="C269" s="2">
+        <v>42370</v>
       </c>
       <c r="D269">
         <v>360931.29</v>
@@ -6781,8 +6785,8 @@
       <c r="B270" t="s">
         <v>46</v>
       </c>
-      <c r="C270">
-        <v>2017</v>
+      <c r="C270" s="2">
+        <v>42736</v>
       </c>
       <c r="D270">
         <v>588227.17</v>
@@ -6804,8 +6808,8 @@
       <c r="B271" t="s">
         <v>46</v>
       </c>
-      <c r="C271">
-        <v>2018</v>
+      <c r="C271" s="2">
+        <v>43101</v>
       </c>
       <c r="D271">
         <v>429284.82</v>
@@ -6827,8 +6831,8 @@
       <c r="B272" t="s">
         <v>46</v>
       </c>
-      <c r="C272">
-        <v>2019</v>
+      <c r="C272" s="2">
+        <v>43466</v>
       </c>
       <c r="D272">
         <v>500000</v>
@@ -6847,8 +6851,8 @@
       <c r="B273" t="s">
         <v>46</v>
       </c>
-      <c r="C273">
-        <v>2020</v>
+      <c r="C273" s="2">
+        <v>43831</v>
       </c>
       <c r="D273">
         <v>69027.42</v>
@@ -6867,8 +6871,8 @@
       <c r="B274" t="s">
         <v>46</v>
       </c>
-      <c r="C274">
-        <v>2021</v>
+      <c r="C274" s="2">
+        <v>44197</v>
       </c>
       <c r="D274">
         <v>890021.64</v>
@@ -6887,8 +6891,8 @@
       <c r="B275" t="s">
         <v>46</v>
       </c>
-      <c r="C275">
-        <v>2022</v>
+      <c r="C275" s="2">
+        <v>44562</v>
       </c>
       <c r="D275">
         <v>240795.18</v>
@@ -6910,8 +6914,8 @@
       <c r="B276" t="s">
         <v>46</v>
       </c>
-      <c r="C276">
-        <v>2023</v>
+      <c r="C276" s="2">
+        <v>44927</v>
       </c>
       <c r="D276">
         <v>9041.67</v>
@@ -6930,8 +6934,8 @@
       <c r="B277" t="s">
         <v>47</v>
       </c>
-      <c r="C277">
-        <v>2014</v>
+      <c r="C277" s="2">
+        <v>41640</v>
       </c>
       <c r="D277">
         <v>750000.3199999999</v>
@@ -6953,8 +6957,8 @@
       <c r="B278" t="s">
         <v>47</v>
       </c>
-      <c r="C278">
-        <v>2015</v>
+      <c r="C278" s="2">
+        <v>42005</v>
       </c>
       <c r="D278">
         <v>514094.93</v>
@@ -6976,8 +6980,8 @@
       <c r="B279" t="s">
         <v>47</v>
       </c>
-      <c r="C279">
-        <v>2016</v>
+      <c r="C279" s="2">
+        <v>42370</v>
       </c>
       <c r="D279">
         <v>1105034.47</v>
@@ -6999,8 +7003,8 @@
       <c r="B280" t="s">
         <v>47</v>
       </c>
-      <c r="C280">
-        <v>2017</v>
+      <c r="C280" s="2">
+        <v>42736</v>
       </c>
       <c r="D280">
         <v>944244.4</v>
@@ -7022,8 +7026,8 @@
       <c r="B281" t="s">
         <v>47</v>
       </c>
-      <c r="C281">
-        <v>2018</v>
+      <c r="C281" s="2">
+        <v>43101</v>
       </c>
       <c r="D281">
         <v>1778119.26</v>
@@ -7045,8 +7049,8 @@
       <c r="B282" t="s">
         <v>47</v>
       </c>
-      <c r="C282">
-        <v>2019</v>
+      <c r="C282" s="2">
+        <v>43466</v>
       </c>
       <c r="D282">
         <v>1665945.93</v>
@@ -7065,8 +7069,8 @@
       <c r="B283" t="s">
         <v>47</v>
       </c>
-      <c r="C283">
-        <v>2020</v>
+      <c r="C283" s="2">
+        <v>43831</v>
       </c>
       <c r="D283">
         <v>703563.76</v>
@@ -7088,8 +7092,8 @@
       <c r="B284" t="s">
         <v>47</v>
       </c>
-      <c r="C284">
-        <v>2021</v>
+      <c r="C284" s="2">
+        <v>44197</v>
       </c>
       <c r="D284">
         <v>2026160.57</v>
@@ -7108,8 +7112,8 @@
       <c r="B285" t="s">
         <v>47</v>
       </c>
-      <c r="C285">
-        <v>2022</v>
+      <c r="C285" s="2">
+        <v>44562</v>
       </c>
       <c r="D285">
         <v>2334783.88</v>
@@ -7128,8 +7132,8 @@
       <c r="B286" t="s">
         <v>47</v>
       </c>
-      <c r="C286">
-        <v>2023</v>
+      <c r="C286" s="2">
+        <v>44927</v>
       </c>
       <c r="D286">
         <v>1288872.66</v>
@@ -7151,8 +7155,8 @@
       <c r="B287" t="s">
         <v>48</v>
       </c>
-      <c r="C287">
-        <v>2014</v>
+      <c r="C287" s="2">
+        <v>41640</v>
       </c>
       <c r="D287">
         <v>301113.55</v>
@@ -7174,8 +7178,8 @@
       <c r="B288" t="s">
         <v>48</v>
       </c>
-      <c r="C288">
-        <v>2015</v>
+      <c r="C288" s="2">
+        <v>42005</v>
       </c>
       <c r="D288">
         <v>525300.89</v>
@@ -7197,8 +7201,8 @@
       <c r="B289" t="s">
         <v>48</v>
       </c>
-      <c r="C289">
-        <v>2016</v>
+      <c r="C289" s="2">
+        <v>42370</v>
       </c>
       <c r="D289">
         <v>641300.49</v>
@@ -7220,8 +7224,8 @@
       <c r="B290" t="s">
         <v>48</v>
       </c>
-      <c r="C290">
-        <v>2017</v>
+      <c r="C290" s="2">
+        <v>42736</v>
       </c>
       <c r="D290">
         <v>533198.91</v>
@@ -7243,8 +7247,8 @@
       <c r="B291" t="s">
         <v>48</v>
       </c>
-      <c r="C291">
-        <v>2018</v>
+      <c r="C291" s="2">
+        <v>43101</v>
       </c>
       <c r="D291">
         <v>540839.62</v>
@@ -7266,8 +7270,8 @@
       <c r="B292" t="s">
         <v>48</v>
       </c>
-      <c r="C292">
-        <v>2019</v>
+      <c r="C292" s="2">
+        <v>43466</v>
       </c>
       <c r="D292">
         <v>776827.65</v>
@@ -7286,8 +7290,8 @@
       <c r="B293" t="s">
         <v>48</v>
       </c>
-      <c r="C293">
-        <v>2020</v>
+      <c r="C293" s="2">
+        <v>43831</v>
       </c>
       <c r="D293">
         <v>765932.58</v>
@@ -7306,8 +7310,8 @@
       <c r="B294" t="s">
         <v>48</v>
       </c>
-      <c r="C294">
-        <v>2021</v>
+      <c r="C294" s="2">
+        <v>44197</v>
       </c>
       <c r="D294">
         <v>293815.62</v>
@@ -7326,8 +7330,8 @@
       <c r="B295" t="s">
         <v>48</v>
       </c>
-      <c r="C295">
-        <v>2022</v>
+      <c r="C295" s="2">
+        <v>44562</v>
       </c>
       <c r="D295">
         <v>1310808.71</v>
@@ -7349,8 +7353,8 @@
       <c r="B296" t="s">
         <v>48</v>
       </c>
-      <c r="C296">
-        <v>2023</v>
+      <c r="C296" s="2">
+        <v>44927</v>
       </c>
       <c r="D296">
         <v>2250000</v>
@@ -7369,8 +7373,8 @@
       <c r="B297" t="s">
         <v>49</v>
       </c>
-      <c r="C297">
-        <v>2019</v>
+      <c r="C297" s="2">
+        <v>43466</v>
       </c>
       <c r="D297">
         <v>171255.19</v>
@@ -7389,8 +7393,8 @@
       <c r="B298" t="s">
         <v>50</v>
       </c>
-      <c r="C298">
-        <v>2021</v>
+      <c r="C298" s="2">
+        <v>44197</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -7409,8 +7413,8 @@
       <c r="B299" t="s">
         <v>51</v>
       </c>
-      <c r="C299">
-        <v>2022</v>
+      <c r="C299" s="2">
+        <v>44562</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -7429,8 +7433,8 @@
       <c r="B300" t="s">
         <v>52</v>
       </c>
-      <c r="C300">
-        <v>2014</v>
+      <c r="C300" s="2">
+        <v>41640</v>
       </c>
       <c r="D300">
         <v>567331.34</v>
@@ -7452,8 +7456,8 @@
       <c r="B301" t="s">
         <v>52</v>
       </c>
-      <c r="C301">
-        <v>2015</v>
+      <c r="C301" s="2">
+        <v>42005</v>
       </c>
       <c r="D301">
         <v>652842.36</v>
@@ -7475,8 +7479,8 @@
       <c r="B302" t="s">
         <v>52</v>
       </c>
-      <c r="C302">
-        <v>2016</v>
+      <c r="C302" s="2">
+        <v>42370</v>
       </c>
       <c r="D302">
         <v>651264.05</v>
@@ -7498,8 +7502,8 @@
       <c r="B303" t="s">
         <v>52</v>
       </c>
-      <c r="C303">
-        <v>2017</v>
+      <c r="C303" s="2">
+        <v>42736</v>
       </c>
       <c r="D303">
         <v>798795.01</v>
@@ -7521,8 +7525,8 @@
       <c r="B304" t="s">
         <v>52</v>
       </c>
-      <c r="C304">
-        <v>2018</v>
+      <c r="C304" s="2">
+        <v>43101</v>
       </c>
       <c r="D304">
         <v>712567.9399999999</v>
@@ -7544,8 +7548,8 @@
       <c r="B305" t="s">
         <v>52</v>
       </c>
-      <c r="C305">
-        <v>2019</v>
+      <c r="C305" s="2">
+        <v>43466</v>
       </c>
       <c r="D305">
         <v>539024.2</v>
@@ -7564,8 +7568,8 @@
       <c r="B306" t="s">
         <v>52</v>
       </c>
-      <c r="C306">
-        <v>2020</v>
+      <c r="C306" s="2">
+        <v>43831</v>
       </c>
       <c r="D306">
         <v>305392.81</v>
@@ -7584,8 +7588,8 @@
       <c r="B307" t="s">
         <v>52</v>
       </c>
-      <c r="C307">
-        <v>2021</v>
+      <c r="C307" s="2">
+        <v>44197</v>
       </c>
       <c r="D307">
         <v>359718.48</v>
@@ -7607,8 +7611,8 @@
       <c r="B308" t="s">
         <v>52</v>
       </c>
-      <c r="C308">
-        <v>2022</v>
+      <c r="C308" s="2">
+        <v>44562</v>
       </c>
       <c r="D308">
         <v>339525.24</v>
@@ -7630,8 +7634,8 @@
       <c r="B309" t="s">
         <v>52</v>
       </c>
-      <c r="C309">
-        <v>2023</v>
+      <c r="C309" s="2">
+        <v>44927</v>
       </c>
       <c r="D309">
         <v>313936.41</v>
@@ -7653,8 +7657,8 @@
       <c r="B310" t="s">
         <v>53</v>
       </c>
-      <c r="C310">
-        <v>2014</v>
+      <c r="C310" s="2">
+        <v>41640</v>
       </c>
       <c r="D310">
         <v>202988.57</v>
@@ -7676,8 +7680,8 @@
       <c r="B311" t="s">
         <v>53</v>
       </c>
-      <c r="C311">
-        <v>2015</v>
+      <c r="C311" s="2">
+        <v>42005</v>
       </c>
       <c r="D311">
         <v>497819.48</v>
@@ -7699,8 +7703,8 @@
       <c r="B312" t="s">
         <v>53</v>
       </c>
-      <c r="C312">
-        <v>2016</v>
+      <c r="C312" s="2">
+        <v>42370</v>
       </c>
       <c r="D312">
         <v>544439.83</v>
@@ -7722,8 +7726,8 @@
       <c r="B313" t="s">
         <v>53</v>
       </c>
-      <c r="C313">
-        <v>2017</v>
+      <c r="C313" s="2">
+        <v>42736</v>
       </c>
       <c r="D313">
         <v>578698.85</v>
@@ -7745,8 +7749,8 @@
       <c r="B314" t="s">
         <v>53</v>
       </c>
-      <c r="C314">
-        <v>2018</v>
+      <c r="C314" s="2">
+        <v>43101</v>
       </c>
       <c r="D314">
         <v>610381.6</v>
@@ -7768,8 +7772,8 @@
       <c r="B315" t="s">
         <v>53</v>
       </c>
-      <c r="C315">
-        <v>2019</v>
+      <c r="C315" s="2">
+        <v>43466</v>
       </c>
       <c r="D315">
         <v>1205706.42</v>
@@ -7788,8 +7792,8 @@
       <c r="B316" t="s">
         <v>53</v>
       </c>
-      <c r="C316">
-        <v>2020</v>
+      <c r="C316" s="2">
+        <v>43831</v>
       </c>
       <c r="D316">
         <v>1171267.68</v>
@@ -7808,8 +7812,8 @@
       <c r="B317" t="s">
         <v>53</v>
       </c>
-      <c r="C317">
-        <v>2021</v>
+      <c r="C317" s="2">
+        <v>44197</v>
       </c>
       <c r="D317">
         <v>1334271.69</v>
@@ -7828,8 +7832,8 @@
       <c r="B318" t="s">
         <v>53</v>
       </c>
-      <c r="C318">
-        <v>2022</v>
+      <c r="C318" s="2">
+        <v>44562</v>
       </c>
       <c r="D318">
         <v>2114535.24</v>
@@ -7851,8 +7855,8 @@
       <c r="B319" t="s">
         <v>53</v>
       </c>
-      <c r="C319">
-        <v>2023</v>
+      <c r="C319" s="2">
+        <v>44927</v>
       </c>
       <c r="D319">
         <v>1460729.7</v>
@@ -7871,8 +7875,8 @@
       <c r="B320" t="s">
         <v>54</v>
       </c>
-      <c r="C320">
-        <v>2014</v>
+      <c r="C320" s="2">
+        <v>41640</v>
       </c>
       <c r="D320">
         <v>1771504.76</v>
@@ -7894,8 +7898,8 @@
       <c r="B321" t="s">
         <v>54</v>
       </c>
-      <c r="C321">
-        <v>2015</v>
+      <c r="C321" s="2">
+        <v>42005</v>
       </c>
       <c r="D321">
         <v>7359378.4</v>
@@ -7917,8 +7921,8 @@
       <c r="B322" t="s">
         <v>54</v>
       </c>
-      <c r="C322">
-        <v>2016</v>
+      <c r="C322" s="2">
+        <v>42370</v>
       </c>
       <c r="D322">
         <v>2113433.76</v>
@@ -7940,8 +7944,8 @@
       <c r="B323" t="s">
         <v>54</v>
       </c>
-      <c r="C323">
-        <v>2017</v>
+      <c r="C323" s="2">
+        <v>42736</v>
       </c>
       <c r="D323">
         <v>1495679.59</v>
@@ -7963,8 +7967,8 @@
       <c r="B324" t="s">
         <v>54</v>
       </c>
-      <c r="C324">
-        <v>2018</v>
+      <c r="C324" s="2">
+        <v>43101</v>
       </c>
       <c r="D324">
         <v>1477429.31</v>
@@ -7986,8 +7990,8 @@
       <c r="B325" t="s">
         <v>54</v>
       </c>
-      <c r="C325">
-        <v>2019</v>
+      <c r="C325" s="2">
+        <v>43466</v>
       </c>
       <c r="D325">
         <v>9027557.98</v>
@@ -8006,8 +8010,8 @@
       <c r="B326" t="s">
         <v>54</v>
       </c>
-      <c r="C326">
-        <v>2020</v>
+      <c r="C326" s="2">
+        <v>43831</v>
       </c>
       <c r="D326">
         <v>1858116.4</v>
@@ -8026,8 +8030,8 @@
       <c r="B327" t="s">
         <v>54</v>
       </c>
-      <c r="C327">
-        <v>2021</v>
+      <c r="C327" s="2">
+        <v>44197</v>
       </c>
       <c r="D327">
         <v>4769175.02</v>
@@ -8046,8 +8050,8 @@
       <c r="B328" t="s">
         <v>54</v>
       </c>
-      <c r="C328">
-        <v>2022</v>
+      <c r="C328" s="2">
+        <v>44562</v>
       </c>
       <c r="D328">
         <v>584342.95</v>
@@ -8069,8 +8073,8 @@
       <c r="B329" t="s">
         <v>54</v>
       </c>
-      <c r="C329">
-        <v>2023</v>
+      <c r="C329" s="2">
+        <v>44927</v>
       </c>
       <c r="D329">
         <v>758521.6</v>
@@ -8092,8 +8096,8 @@
       <c r="B330" t="s">
         <v>55</v>
       </c>
-      <c r="C330">
-        <v>2021</v>
+      <c r="C330" s="2">
+        <v>44197</v>
       </c>
       <c r="D330">
         <v>99709</v>
@@ -8112,8 +8116,8 @@
       <c r="B331" t="s">
         <v>56</v>
       </c>
-      <c r="C331">
-        <v>2022</v>
+      <c r="C331" s="2">
+        <v>44562</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -8132,8 +8136,8 @@
       <c r="B332" t="s">
         <v>56</v>
       </c>
-      <c r="C332">
-        <v>2023</v>
+      <c r="C332" s="2">
+        <v>44927</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -8152,8 +8156,8 @@
       <c r="B333" t="s">
         <v>57</v>
       </c>
-      <c r="C333">
-        <v>2014</v>
+      <c r="C333" s="2">
+        <v>41640</v>
       </c>
       <c r="D333">
         <v>356160.84</v>
@@ -8175,8 +8179,8 @@
       <c r="B334" t="s">
         <v>57</v>
       </c>
-      <c r="C334">
-        <v>2015</v>
+      <c r="C334" s="2">
+        <v>42005</v>
       </c>
       <c r="D334">
         <v>633904.48</v>
@@ -8198,8 +8202,8 @@
       <c r="B335" t="s">
         <v>57</v>
       </c>
-      <c r="C335">
-        <v>2016</v>
+      <c r="C335" s="2">
+        <v>42370</v>
       </c>
       <c r="D335">
         <v>808734.66</v>
@@ -8221,8 +8225,8 @@
       <c r="B336" t="s">
         <v>57</v>
       </c>
-      <c r="C336">
-        <v>2017</v>
+      <c r="C336" s="2">
+        <v>42736</v>
       </c>
       <c r="D336">
         <v>1325188.67</v>
@@ -8244,8 +8248,8 @@
       <c r="B337" t="s">
         <v>57</v>
       </c>
-      <c r="C337">
-        <v>2018</v>
+      <c r="C337" s="2">
+        <v>43101</v>
       </c>
       <c r="D337">
         <v>1221506.39</v>
@@ -8267,8 +8271,8 @@
       <c r="B338" t="s">
         <v>57</v>
       </c>
-      <c r="C338">
-        <v>2019</v>
+      <c r="C338" s="2">
+        <v>43466</v>
       </c>
       <c r="D338">
         <v>875584.42</v>
@@ -8287,8 +8291,8 @@
       <c r="B339" t="s">
         <v>57</v>
       </c>
-      <c r="C339">
-        <v>2020</v>
+      <c r="C339" s="2">
+        <v>43831</v>
       </c>
       <c r="D339">
         <v>1030727.5</v>
@@ -8307,8 +8311,8 @@
       <c r="B340" t="s">
         <v>57</v>
       </c>
-      <c r="C340">
-        <v>2021</v>
+      <c r="C340" s="2">
+        <v>44197</v>
       </c>
       <c r="D340">
         <v>1382872.15</v>
@@ -8330,8 +8334,8 @@
       <c r="B341" t="s">
         <v>57</v>
       </c>
-      <c r="C341">
-        <v>2022</v>
+      <c r="C341" s="2">
+        <v>44562</v>
       </c>
       <c r="D341">
         <v>3319633.14</v>
@@ -8353,8 +8357,8 @@
       <c r="B342" t="s">
         <v>57</v>
       </c>
-      <c r="C342">
-        <v>2023</v>
+      <c r="C342" s="2">
+        <v>44927</v>
       </c>
       <c r="D342">
         <v>1530226.11</v>
@@ -8376,8 +8380,8 @@
       <c r="B343" t="s">
         <v>58</v>
       </c>
-      <c r="C343">
-        <v>2017</v>
+      <c r="C343" s="2">
+        <v>42736</v>
       </c>
       <c r="D343">
         <v>29664.52</v>
@@ -8399,8 +8403,8 @@
       <c r="B344" t="s">
         <v>59</v>
       </c>
-      <c r="C344">
-        <v>2014</v>
+      <c r="C344" s="2">
+        <v>41640</v>
       </c>
       <c r="D344">
         <v>185405.18</v>
@@ -8419,8 +8423,8 @@
       <c r="B345" t="s">
         <v>59</v>
       </c>
-      <c r="C345">
-        <v>2015</v>
+      <c r="C345" s="2">
+        <v>42005</v>
       </c>
       <c r="D345">
         <v>1052877.99</v>
@@ -8442,8 +8446,8 @@
       <c r="B346" t="s">
         <v>59</v>
       </c>
-      <c r="C346">
-        <v>2016</v>
+      <c r="C346" s="2">
+        <v>42370</v>
       </c>
       <c r="D346">
         <v>517318.46</v>
@@ -8465,8 +8469,8 @@
       <c r="B347" t="s">
         <v>59</v>
       </c>
-      <c r="C347">
-        <v>2017</v>
+      <c r="C347" s="2">
+        <v>42736</v>
       </c>
       <c r="D347">
         <v>947240.89</v>
@@ -8488,8 +8492,8 @@
       <c r="B348" t="s">
         <v>59</v>
       </c>
-      <c r="C348">
-        <v>2018</v>
+      <c r="C348" s="2">
+        <v>43101</v>
       </c>
       <c r="D348">
         <v>1062428.08</v>
@@ -8511,8 +8515,8 @@
       <c r="B349" t="s">
         <v>59</v>
       </c>
-      <c r="C349">
-        <v>2019</v>
+      <c r="C349" s="2">
+        <v>43466</v>
       </c>
       <c r="D349">
         <v>1035605.12</v>
@@ -8531,8 +8535,8 @@
       <c r="B350" t="s">
         <v>59</v>
       </c>
-      <c r="C350">
-        <v>2020</v>
+      <c r="C350" s="2">
+        <v>43831</v>
       </c>
       <c r="D350">
         <v>1868398.02</v>
@@ -8554,8 +8558,8 @@
       <c r="B351" t="s">
         <v>59</v>
       </c>
-      <c r="C351">
-        <v>2021</v>
+      <c r="C351" s="2">
+        <v>44197</v>
       </c>
       <c r="D351">
         <v>842206.1800000001</v>
@@ -8574,8 +8578,8 @@
       <c r="B352" t="s">
         <v>59</v>
       </c>
-      <c r="C352">
-        <v>2022</v>
+      <c r="C352" s="2">
+        <v>44562</v>
       </c>
       <c r="D352">
         <v>137885.81</v>
@@ -8594,8 +8598,8 @@
       <c r="B353" t="s">
         <v>59</v>
       </c>
-      <c r="C353">
-        <v>2023</v>
+      <c r="C353" s="2">
+        <v>44927</v>
       </c>
       <c r="D353">
         <v>-58076.36</v>
@@ -8614,8 +8618,8 @@
       <c r="B354" t="s">
         <v>60</v>
       </c>
-      <c r="C354">
-        <v>2014</v>
+      <c r="C354" s="2">
+        <v>41640</v>
       </c>
       <c r="D354">
         <v>30223.88</v>
@@ -8637,8 +8641,8 @@
       <c r="B355" t="s">
         <v>60</v>
       </c>
-      <c r="C355">
-        <v>2015</v>
+      <c r="C355" s="2">
+        <v>42005</v>
       </c>
       <c r="D355">
         <v>5513.78</v>
@@ -8657,8 +8661,8 @@
       <c r="B356" t="s">
         <v>61</v>
       </c>
-      <c r="C356">
-        <v>2015</v>
+      <c r="C356" s="2">
+        <v>42005</v>
       </c>
       <c r="D356">
         <v>106037.66</v>
@@ -8680,8 +8684,8 @@
       <c r="B357" t="s">
         <v>62</v>
       </c>
-      <c r="C357">
-        <v>2017</v>
+      <c r="C357" s="2">
+        <v>42736</v>
       </c>
       <c r="D357">
         <v>88153.32000000001</v>
@@ -8703,8 +8707,8 @@
       <c r="B358" t="s">
         <v>63</v>
       </c>
-      <c r="C358">
-        <v>2014</v>
+      <c r="C358" s="2">
+        <v>41640</v>
       </c>
       <c r="D358">
         <v>231945.75</v>
@@ -8726,8 +8730,8 @@
       <c r="B359" t="s">
         <v>63</v>
       </c>
-      <c r="C359">
-        <v>2015</v>
+      <c r="C359" s="2">
+        <v>42005</v>
       </c>
       <c r="D359">
         <v>885592.3199999999</v>
@@ -8749,8 +8753,8 @@
       <c r="B360" t="s">
         <v>63</v>
       </c>
-      <c r="C360">
-        <v>2016</v>
+      <c r="C360" s="2">
+        <v>42370</v>
       </c>
       <c r="D360">
         <v>1307989.62</v>
@@ -8772,8 +8776,8 @@
       <c r="B361" t="s">
         <v>63</v>
       </c>
-      <c r="C361">
-        <v>2017</v>
+      <c r="C361" s="2">
+        <v>42736</v>
       </c>
       <c r="D361">
         <v>501523.5</v>
@@ -8795,8 +8799,8 @@
       <c r="B362" t="s">
         <v>63</v>
       </c>
-      <c r="C362">
-        <v>2018</v>
+      <c r="C362" s="2">
+        <v>43101</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -8815,8 +8819,8 @@
       <c r="B363" t="s">
         <v>63</v>
       </c>
-      <c r="C363">
-        <v>2023</v>
+      <c r="C363" s="2">
+        <v>44927</v>
       </c>
       <c r="D363">
         <v>1645133.08</v>
@@ -8835,8 +8839,8 @@
       <c r="B364" t="s">
         <v>64</v>
       </c>
-      <c r="C364">
-        <v>2014</v>
+      <c r="C364" s="2">
+        <v>41640</v>
       </c>
       <c r="D364">
         <v>88839.39</v>
@@ -8855,8 +8859,8 @@
       <c r="B365" t="s">
         <v>64</v>
       </c>
-      <c r="C365">
-        <v>2015</v>
+      <c r="C365" s="2">
+        <v>42005</v>
       </c>
       <c r="D365">
         <v>335981.55</v>
@@ -8878,8 +8882,8 @@
       <c r="B366" t="s">
         <v>64</v>
       </c>
-      <c r="C366">
-        <v>2016</v>
+      <c r="C366" s="2">
+        <v>42370</v>
       </c>
       <c r="D366">
         <v>401767</v>
@@ -8901,8 +8905,8 @@
       <c r="B367" t="s">
         <v>64</v>
       </c>
-      <c r="C367">
-        <v>2017</v>
+      <c r="C367" s="2">
+        <v>42736</v>
       </c>
       <c r="D367">
         <v>267907.45</v>
@@ -8924,8 +8928,8 @@
       <c r="B368" t="s">
         <v>64</v>
       </c>
-      <c r="C368">
-        <v>2018</v>
+      <c r="C368" s="2">
+        <v>43101</v>
       </c>
       <c r="D368">
         <v>506123.66</v>
@@ -8947,8 +8951,8 @@
       <c r="B369" t="s">
         <v>64</v>
       </c>
-      <c r="C369">
-        <v>2019</v>
+      <c r="C369" s="2">
+        <v>43466</v>
       </c>
       <c r="D369">
         <v>393480.17</v>
@@ -8967,8 +8971,8 @@
       <c r="B370" t="s">
         <v>64</v>
       </c>
-      <c r="C370">
-        <v>2020</v>
+      <c r="C370" s="2">
+        <v>43831</v>
       </c>
       <c r="D370">
         <v>226290.45</v>
@@ -8987,8 +8991,8 @@
       <c r="B371" t="s">
         <v>64</v>
       </c>
-      <c r="C371">
-        <v>2021</v>
+      <c r="C371" s="2">
+        <v>44197</v>
       </c>
       <c r="D371">
         <v>529705.03</v>
@@ -9010,8 +9014,8 @@
       <c r="B372" t="s">
         <v>64</v>
       </c>
-      <c r="C372">
-        <v>2022</v>
+      <c r="C372" s="2">
+        <v>44562</v>
       </c>
       <c r="D372">
         <v>557611.48</v>
@@ -9033,8 +9037,8 @@
       <c r="B373" t="s">
         <v>64</v>
       </c>
-      <c r="C373">
-        <v>2023</v>
+      <c r="C373" s="2">
+        <v>44927</v>
       </c>
       <c r="D373">
         <v>592223.29</v>
@@ -9056,8 +9060,8 @@
       <c r="B374" t="s">
         <v>65</v>
       </c>
-      <c r="C374">
-        <v>2014</v>
+      <c r="C374" s="2">
+        <v>41640</v>
       </c>
       <c r="D374">
         <v>43763.58</v>
@@ -9076,8 +9080,8 @@
       <c r="B375" t="s">
         <v>65</v>
       </c>
-      <c r="C375">
-        <v>2015</v>
+      <c r="C375" s="2">
+        <v>42005</v>
       </c>
       <c r="D375">
         <v>328586.31</v>
@@ -9099,8 +9103,8 @@
       <c r="B376" t="s">
         <v>65</v>
       </c>
-      <c r="C376">
-        <v>2016</v>
+      <c r="C376" s="2">
+        <v>42370</v>
       </c>
       <c r="D376">
         <v>307890.22</v>
@@ -9122,8 +9126,8 @@
       <c r="B377" t="s">
         <v>65</v>
       </c>
-      <c r="C377">
-        <v>2017</v>
+      <c r="C377" s="2">
+        <v>42736</v>
       </c>
       <c r="D377">
         <v>216895.61</v>
@@ -9145,8 +9149,8 @@
       <c r="B378" t="s">
         <v>65</v>
       </c>
-      <c r="C378">
-        <v>2018</v>
+      <c r="C378" s="2">
+        <v>43101</v>
       </c>
       <c r="D378">
         <v>556014.72</v>
@@ -9168,8 +9172,8 @@
       <c r="B379" t="s">
         <v>65</v>
       </c>
-      <c r="C379">
-        <v>2019</v>
+      <c r="C379" s="2">
+        <v>43466</v>
       </c>
       <c r="D379">
         <v>1032414.52</v>
@@ -9188,8 +9192,8 @@
       <c r="B380" t="s">
         <v>65</v>
       </c>
-      <c r="C380">
-        <v>2020</v>
+      <c r="C380" s="2">
+        <v>43831</v>
       </c>
       <c r="D380">
         <v>974254.4</v>
@@ -9208,8 +9212,8 @@
       <c r="B381" t="s">
         <v>65</v>
       </c>
-      <c r="C381">
-        <v>2021</v>
+      <c r="C381" s="2">
+        <v>44197</v>
       </c>
       <c r="D381">
         <v>1202632.86</v>
@@ -9228,8 +9232,8 @@
       <c r="B382" t="s">
         <v>65</v>
       </c>
-      <c r="C382">
-        <v>2022</v>
+      <c r="C382" s="2">
+        <v>44562</v>
       </c>
       <c r="D382">
         <v>875083.51</v>
@@ -9251,8 +9255,8 @@
       <c r="B383" t="s">
         <v>65</v>
       </c>
-      <c r="C383">
-        <v>2023</v>
+      <c r="C383" s="2">
+        <v>44927</v>
       </c>
       <c r="D383">
         <v>1020314.54</v>
@@ -9271,8 +9275,8 @@
       <c r="B384" t="s">
         <v>66</v>
       </c>
-      <c r="C384">
-        <v>2014</v>
+      <c r="C384" s="2">
+        <v>41640</v>
       </c>
       <c r="D384">
         <v>960750.37</v>
@@ -9294,8 +9298,8 @@
       <c r="B385" t="s">
         <v>66</v>
       </c>
-      <c r="C385">
-        <v>2015</v>
+      <c r="C385" s="2">
+        <v>42005</v>
       </c>
       <c r="D385">
         <v>1937811.94</v>
@@ -9317,8 +9321,8 @@
       <c r="B386" t="s">
         <v>66</v>
       </c>
-      <c r="C386">
-        <v>2016</v>
+      <c r="C386" s="2">
+        <v>42370</v>
       </c>
       <c r="D386">
         <v>1660705.78</v>
@@ -9340,8 +9344,8 @@
       <c r="B387" t="s">
         <v>66</v>
       </c>
-      <c r="C387">
-        <v>2017</v>
+      <c r="C387" s="2">
+        <v>42736</v>
       </c>
       <c r="D387">
         <v>1610326.88</v>
@@ -9363,8 +9367,8 @@
       <c r="B388" t="s">
         <v>66</v>
       </c>
-      <c r="C388">
-        <v>2018</v>
+      <c r="C388" s="2">
+        <v>43101</v>
       </c>
       <c r="D388">
         <v>2877547.36</v>
@@ -9386,8 +9390,8 @@
       <c r="B389" t="s">
         <v>66</v>
       </c>
-      <c r="C389">
-        <v>2019</v>
+      <c r="C389" s="2">
+        <v>43466</v>
       </c>
       <c r="D389">
         <v>2888942.38</v>
@@ -9406,8 +9410,8 @@
       <c r="B390" t="s">
         <v>66</v>
       </c>
-      <c r="C390">
-        <v>2020</v>
+      <c r="C390" s="2">
+        <v>43831</v>
       </c>
       <c r="D390">
         <v>822960.59</v>
@@ -9429,8 +9433,8 @@
       <c r="B391" t="s">
         <v>66</v>
       </c>
-      <c r="C391">
-        <v>2021</v>
+      <c r="C391" s="2">
+        <v>44197</v>
       </c>
       <c r="D391">
         <v>110914.6</v>
@@ -9449,8 +9453,8 @@
       <c r="B392" t="s">
         <v>66</v>
       </c>
-      <c r="C392">
-        <v>2022</v>
+      <c r="C392" s="2">
+        <v>44562</v>
       </c>
       <c r="D392">
         <v>30627.8</v>
@@ -9469,8 +9473,8 @@
       <c r="B393" t="s">
         <v>67</v>
       </c>
-      <c r="C393">
-        <v>2014</v>
+      <c r="C393" s="2">
+        <v>41640</v>
       </c>
       <c r="D393">
         <v>54327</v>
@@ -9492,8 +9496,8 @@
       <c r="B394" t="s">
         <v>67</v>
       </c>
-      <c r="C394">
-        <v>2015</v>
+      <c r="C394" s="2">
+        <v>42005</v>
       </c>
       <c r="D394">
         <v>85560.53999999999</v>
@@ -9515,8 +9519,8 @@
       <c r="B395" t="s">
         <v>68</v>
       </c>
-      <c r="C395">
-        <v>2014</v>
+      <c r="C395" s="2">
+        <v>41640</v>
       </c>
       <c r="D395">
         <v>47519</v>
@@ -9538,8 +9542,8 @@
       <c r="B396" t="s">
         <v>68</v>
       </c>
-      <c r="C396">
-        <v>2015</v>
+      <c r="C396" s="2">
+        <v>42005</v>
       </c>
       <c r="D396">
         <v>72167.08</v>
@@ -9561,8 +9565,8 @@
       <c r="B397" t="s">
         <v>69</v>
       </c>
-      <c r="C397">
-        <v>2021</v>
+      <c r="C397" s="2">
+        <v>44197</v>
       </c>
       <c r="D397">
         <v>22210</v>
@@ -9581,8 +9585,8 @@
       <c r="B398" t="s">
         <v>70</v>
       </c>
-      <c r="C398">
-        <v>2017</v>
+      <c r="C398" s="2">
+        <v>42736</v>
       </c>
       <c r="D398">
         <v>50000</v>
@@ -9604,8 +9608,8 @@
       <c r="B399" t="s">
         <v>71</v>
       </c>
-      <c r="C399">
-        <v>2017</v>
+      <c r="C399" s="2">
+        <v>42736</v>
       </c>
       <c r="D399">
         <v>22424.36</v>
@@ -9627,8 +9631,8 @@
       <c r="B400" t="s">
         <v>72</v>
       </c>
-      <c r="C400">
-        <v>2014</v>
+      <c r="C400" s="2">
+        <v>41640</v>
       </c>
       <c r="D400">
         <v>171398.16</v>
@@ -9650,8 +9654,8 @@
       <c r="B401" t="s">
         <v>72</v>
       </c>
-      <c r="C401">
-        <v>2015</v>
+      <c r="C401" s="2">
+        <v>42005</v>
       </c>
       <c r="D401">
         <v>2194829.4</v>
@@ -9673,8 +9677,8 @@
       <c r="B402" t="s">
         <v>72</v>
       </c>
-      <c r="C402">
-        <v>2016</v>
+      <c r="C402" s="2">
+        <v>42370</v>
       </c>
       <c r="D402">
         <v>1492879.42</v>
@@ -9696,8 +9700,8 @@
       <c r="B403" t="s">
         <v>72</v>
       </c>
-      <c r="C403">
-        <v>2017</v>
+      <c r="C403" s="2">
+        <v>42736</v>
       </c>
       <c r="D403">
         <v>2425068.14</v>
@@ -9719,8 +9723,8 @@
       <c r="B404" t="s">
         <v>72</v>
       </c>
-      <c r="C404">
-        <v>2018</v>
+      <c r="C404" s="2">
+        <v>43101</v>
       </c>
       <c r="D404">
         <v>1557403.06</v>
@@ -9742,8 +9746,8 @@
       <c r="B405" t="s">
         <v>72</v>
       </c>
-      <c r="C405">
-        <v>2019</v>
+      <c r="C405" s="2">
+        <v>43466</v>
       </c>
       <c r="D405">
         <v>1966813.19</v>
@@ -9762,8 +9766,8 @@
       <c r="B406" t="s">
         <v>72</v>
       </c>
-      <c r="C406">
-        <v>2020</v>
+      <c r="C406" s="2">
+        <v>43831</v>
       </c>
       <c r="D406">
         <v>694513.79</v>
@@ -9782,8 +9786,8 @@
       <c r="B407" t="s">
         <v>72</v>
       </c>
-      <c r="C407">
-        <v>2021</v>
+      <c r="C407" s="2">
+        <v>44197</v>
       </c>
       <c r="D407">
         <v>1176575.4</v>
@@ -9802,8 +9806,8 @@
       <c r="B408" t="s">
         <v>72</v>
       </c>
-      <c r="C408">
-        <v>2022</v>
+      <c r="C408" s="2">
+        <v>44562</v>
       </c>
       <c r="D408">
         <v>243170.51</v>
@@ -9825,8 +9829,8 @@
       <c r="B409" t="s">
         <v>72</v>
       </c>
-      <c r="C409">
-        <v>2023</v>
+      <c r="C409" s="2">
+        <v>44927</v>
       </c>
       <c r="D409">
         <v>427007.7</v>
@@ -9848,8 +9852,8 @@
       <c r="B410" t="s">
         <v>73</v>
       </c>
-      <c r="C410">
-        <v>2018</v>
+      <c r="C410" s="2">
+        <v>43101</v>
       </c>
       <c r="D410">
         <v>755351.16</v>
@@ -9868,8 +9872,8 @@
       <c r="B411" t="s">
         <v>73</v>
       </c>
-      <c r="C411">
-        <v>2019</v>
+      <c r="C411" s="2">
+        <v>43466</v>
       </c>
       <c r="D411">
         <v>169272.4</v>
@@ -9891,8 +9895,8 @@
       <c r="B412" t="s">
         <v>73</v>
       </c>
-      <c r="C412">
-        <v>2020</v>
+      <c r="C412" s="2">
+        <v>43831</v>
       </c>
       <c r="D412">
         <v>-6936</v>
@@ -9914,8 +9918,8 @@
       <c r="B413" t="s">
         <v>73</v>
       </c>
-      <c r="C413">
-        <v>2021</v>
+      <c r="C413" s="2">
+        <v>44197</v>
       </c>
       <c r="D413">
         <v>0</v>
@@ -9937,8 +9941,8 @@
       <c r="B414" t="s">
         <v>74</v>
       </c>
-      <c r="C414">
-        <v>2020</v>
+      <c r="C414" s="2">
+        <v>43831</v>
       </c>
       <c r="D414">
         <v>67541.3</v>
@@ -9960,8 +9964,8 @@
       <c r="B415" t="s">
         <v>75</v>
       </c>
-      <c r="C415">
-        <v>2020</v>
+      <c r="C415" s="2">
+        <v>43831</v>
       </c>
       <c r="D415">
         <v>91632.35000000001</v>
@@ -9983,8 +9987,8 @@
       <c r="B416" t="s">
         <v>76</v>
       </c>
-      <c r="C416">
-        <v>2014</v>
+      <c r="C416" s="2">
+        <v>41640</v>
       </c>
       <c r="D416">
         <v>102575.75</v>
@@ -10006,8 +10010,8 @@
       <c r="B417" t="s">
         <v>76</v>
       </c>
-      <c r="C417">
-        <v>2015</v>
+      <c r="C417" s="2">
+        <v>42005</v>
       </c>
       <c r="D417">
         <v>250876.09</v>
@@ -10029,8 +10033,8 @@
       <c r="B418" t="s">
         <v>76</v>
       </c>
-      <c r="C418">
-        <v>2016</v>
+      <c r="C418" s="2">
+        <v>42370</v>
       </c>
       <c r="D418">
         <v>439799.56</v>
@@ -10052,8 +10056,8 @@
       <c r="B419" t="s">
         <v>76</v>
       </c>
-      <c r="C419">
-        <v>2017</v>
+      <c r="C419" s="2">
+        <v>42736</v>
       </c>
       <c r="D419">
         <v>439281.72</v>
@@ -10075,8 +10079,8 @@
       <c r="B420" t="s">
         <v>76</v>
       </c>
-      <c r="C420">
-        <v>2018</v>
+      <c r="C420" s="2">
+        <v>43101</v>
       </c>
       <c r="D420">
         <v>439691.67</v>
@@ -10098,8 +10102,8 @@
       <c r="B421" t="s">
         <v>76</v>
       </c>
-      <c r="C421">
-        <v>2019</v>
+      <c r="C421" s="2">
+        <v>43466</v>
       </c>
       <c r="D421">
         <v>837256.1</v>
@@ -10118,8 +10122,8 @@
       <c r="B422" t="s">
         <v>76</v>
       </c>
-      <c r="C422">
-        <v>2020</v>
+      <c r="C422" s="2">
+        <v>43831</v>
       </c>
       <c r="D422">
         <v>729262.65</v>
@@ -10138,8 +10142,8 @@
       <c r="B423" t="s">
         <v>76</v>
       </c>
-      <c r="C423">
-        <v>2021</v>
+      <c r="C423" s="2">
+        <v>44197</v>
       </c>
       <c r="D423">
         <v>888623.37</v>
@@ -10158,8 +10162,8 @@
       <c r="B424" t="s">
         <v>76</v>
       </c>
-      <c r="C424">
-        <v>2022</v>
+      <c r="C424" s="2">
+        <v>44562</v>
       </c>
       <c r="D424">
         <v>900358.85</v>
@@ -10181,8 +10185,8 @@
       <c r="B425" t="s">
         <v>76</v>
       </c>
-      <c r="C425">
-        <v>2023</v>
+      <c r="C425" s="2">
+        <v>44927</v>
       </c>
       <c r="D425">
         <v>1331616.06</v>
@@ -10201,8 +10205,8 @@
       <c r="B426" t="s">
         <v>77</v>
       </c>
-      <c r="C426">
-        <v>2020</v>
+      <c r="C426" s="2">
+        <v>43831</v>
       </c>
       <c r="D426">
         <v>91632.39999999999</v>
@@ -10224,8 +10228,8 @@
       <c r="B427" t="s">
         <v>78</v>
       </c>
-      <c r="C427">
-        <v>2014</v>
+      <c r="C427" s="2">
+        <v>41640</v>
       </c>
       <c r="D427">
         <v>63826.42</v>
@@ -10244,8 +10248,8 @@
       <c r="B428" t="s">
         <v>78</v>
       </c>
-      <c r="C428">
-        <v>2015</v>
+      <c r="C428" s="2">
+        <v>42005</v>
       </c>
       <c r="D428">
         <v>325404.98</v>
@@ -10267,8 +10271,8 @@
       <c r="B429" t="s">
         <v>78</v>
       </c>
-      <c r="C429">
-        <v>2016</v>
+      <c r="C429" s="2">
+        <v>42370</v>
       </c>
       <c r="D429">
         <v>244928.12</v>
@@ -10290,8 +10294,8 @@
       <c r="B430" t="s">
         <v>78</v>
       </c>
-      <c r="C430">
-        <v>2017</v>
+      <c r="C430" s="2">
+        <v>42736</v>
       </c>
       <c r="D430">
         <v>144587.37</v>
@@ -10313,8 +10317,8 @@
       <c r="B431" t="s">
         <v>78</v>
       </c>
-      <c r="C431">
-        <v>2018</v>
+      <c r="C431" s="2">
+        <v>43101</v>
       </c>
       <c r="D431">
         <v>-0.01</v>
@@ -10333,8 +10337,8 @@
       <c r="B432" t="s">
         <v>78</v>
       </c>
-      <c r="C432">
-        <v>2019</v>
+      <c r="C432" s="2">
+        <v>43466</v>
       </c>
       <c r="D432">
         <v>134542.52</v>
@@ -10353,8 +10357,8 @@
       <c r="B433" t="s">
         <v>78</v>
       </c>
-      <c r="C433">
-        <v>2020</v>
+      <c r="C433" s="2">
+        <v>43831</v>
       </c>
       <c r="D433">
         <v>86488.69</v>
@@ -10373,8 +10377,8 @@
       <c r="B434" t="s">
         <v>78</v>
       </c>
-      <c r="C434">
-        <v>2021</v>
+      <c r="C434" s="2">
+        <v>44197</v>
       </c>
       <c r="D434">
         <v>328614.38</v>
@@ -10396,8 +10400,8 @@
       <c r="B435" t="s">
         <v>78</v>
       </c>
-      <c r="C435">
-        <v>2022</v>
+      <c r="C435" s="2">
+        <v>44562</v>
       </c>
       <c r="D435">
         <v>396638.07</v>
@@ -10419,8 +10423,8 @@
       <c r="B436" t="s">
         <v>78</v>
       </c>
-      <c r="C436">
-        <v>2023</v>
+      <c r="C436" s="2">
+        <v>44927</v>
       </c>
       <c r="D436">
         <v>365987.8</v>
@@ -10442,8 +10446,8 @@
       <c r="B437" t="s">
         <v>79</v>
       </c>
-      <c r="C437">
-        <v>2015</v>
+      <c r="C437" s="2">
+        <v>42005</v>
       </c>
       <c r="D437">
         <v>179349.99</v>
@@ -10465,8 +10469,8 @@
       <c r="B438" t="s">
         <v>79</v>
       </c>
-      <c r="C438">
-        <v>2016</v>
+      <c r="C438" s="2">
+        <v>42370</v>
       </c>
       <c r="D438">
         <v>151290.18</v>
@@ -10488,8 +10492,8 @@
       <c r="B439" t="s">
         <v>79</v>
       </c>
-      <c r="C439">
-        <v>2017</v>
+      <c r="C439" s="2">
+        <v>42736</v>
       </c>
       <c r="D439">
         <v>148164.33</v>
@@ -10511,8 +10515,8 @@
       <c r="B440" t="s">
         <v>79</v>
       </c>
-      <c r="C440">
-        <v>2018</v>
+      <c r="C440" s="2">
+        <v>43101</v>
       </c>
       <c r="D440">
         <v>615765.6899999999</v>
@@ -10534,8 +10538,8 @@
       <c r="B441" t="s">
         <v>80</v>
       </c>
-      <c r="C441">
-        <v>2016</v>
+      <c r="C441" s="2">
+        <v>42370</v>
       </c>
       <c r="D441">
         <v>47263.13</v>
@@ -10557,8 +10561,8 @@
       <c r="B442" t="s">
         <v>80</v>
       </c>
-      <c r="C442">
-        <v>2018</v>
+      <c r="C442" s="2">
+        <v>43101</v>
       </c>
       <c r="D442">
         <v>8467.74</v>
@@ -10580,8 +10584,8 @@
       <c r="B443" t="s">
         <v>81</v>
       </c>
-      <c r="C443">
-        <v>2014</v>
+      <c r="C443" s="2">
+        <v>41640</v>
       </c>
       <c r="D443">
         <v>151.72</v>
@@ -10600,8 +10604,8 @@
       <c r="B444" t="s">
         <v>81</v>
       </c>
-      <c r="C444">
-        <v>2015</v>
+      <c r="C444" s="2">
+        <v>42005</v>
       </c>
       <c r="D444">
         <v>142877.89</v>
@@ -10623,8 +10627,8 @@
       <c r="B445" t="s">
         <v>81</v>
       </c>
-      <c r="C445">
-        <v>2016</v>
+      <c r="C445" s="2">
+        <v>42370</v>
       </c>
       <c r="D445">
         <v>218536</v>
@@ -10646,8 +10650,8 @@
       <c r="B446" t="s">
         <v>81</v>
       </c>
-      <c r="C446">
-        <v>2017</v>
+      <c r="C446" s="2">
+        <v>42736</v>
       </c>
       <c r="D446">
         <v>333502.62</v>
@@ -10669,8 +10673,8 @@
       <c r="B447" t="s">
         <v>81</v>
       </c>
-      <c r="C447">
-        <v>2018</v>
+      <c r="C447" s="2">
+        <v>43101</v>
       </c>
       <c r="D447">
         <v>394708.13</v>
@@ -10692,8 +10696,8 @@
       <c r="B448" t="s">
         <v>81</v>
       </c>
-      <c r="C448">
-        <v>2019</v>
+      <c r="C448" s="2">
+        <v>43466</v>
       </c>
       <c r="D448">
         <v>500000</v>
@@ -10712,8 +10716,8 @@
       <c r="B449" t="s">
         <v>81</v>
       </c>
-      <c r="C449">
-        <v>2020</v>
+      <c r="C449" s="2">
+        <v>43831</v>
       </c>
       <c r="D449">
         <v>303459.66</v>
@@ -10732,8 +10736,8 @@
       <c r="B450" t="s">
         <v>81</v>
       </c>
-      <c r="C450">
-        <v>2021</v>
+      <c r="C450" s="2">
+        <v>44197</v>
       </c>
       <c r="D450">
         <v>217530.65</v>
@@ -10755,8 +10759,8 @@
       <c r="B451" t="s">
         <v>81</v>
       </c>
-      <c r="C451">
-        <v>2022</v>
+      <c r="C451" s="2">
+        <v>44562</v>
       </c>
       <c r="D451">
         <v>488972.28</v>
@@ -10778,8 +10782,8 @@
       <c r="B452" t="s">
         <v>81</v>
       </c>
-      <c r="C452">
-        <v>2023</v>
+      <c r="C452" s="2">
+        <v>44927</v>
       </c>
       <c r="D452">
         <v>126778.85</v>
@@ -10798,8 +10802,8 @@
       <c r="B453" t="s">
         <v>82</v>
       </c>
-      <c r="C453">
-        <v>2015</v>
+      <c r="C453" s="2">
+        <v>42005</v>
       </c>
       <c r="D453">
         <v>236359.15</v>
@@ -10818,8 +10822,8 @@
       <c r="B454" t="s">
         <v>82</v>
       </c>
-      <c r="C454">
-        <v>2016</v>
+      <c r="C454" s="2">
+        <v>42370</v>
       </c>
       <c r="D454">
         <v>266421.06</v>
@@ -10841,8 +10845,8 @@
       <c r="B455" t="s">
         <v>82</v>
       </c>
-      <c r="C455">
-        <v>2017</v>
+      <c r="C455" s="2">
+        <v>42736</v>
       </c>
       <c r="D455">
         <v>244185.39</v>
@@ -10864,8 +10868,8 @@
       <c r="B456" t="s">
         <v>82</v>
       </c>
-      <c r="C456">
-        <v>2018</v>
+      <c r="C456" s="2">
+        <v>43101</v>
       </c>
       <c r="D456">
         <v>1547410.69</v>
@@ -10887,8 +10891,8 @@
       <c r="B457" t="s">
         <v>82</v>
       </c>
-      <c r="C457">
-        <v>2019</v>
+      <c r="C457" s="2">
+        <v>43466</v>
       </c>
       <c r="D457">
         <v>1504429.37</v>
@@ -10907,8 +10911,8 @@
       <c r="B458" t="s">
         <v>82</v>
       </c>
-      <c r="C458">
-        <v>2020</v>
+      <c r="C458" s="2">
+        <v>43831</v>
       </c>
       <c r="D458">
         <v>750371.87</v>
@@ -10927,8 +10931,8 @@
       <c r="B459" t="s">
         <v>82</v>
       </c>
-      <c r="C459">
-        <v>2021</v>
+      <c r="C459" s="2">
+        <v>44197</v>
       </c>
       <c r="D459">
         <v>2192353.4</v>
@@ -10947,8 +10951,8 @@
       <c r="B460" t="s">
         <v>82</v>
       </c>
-      <c r="C460">
-        <v>2022</v>
+      <c r="C460" s="2">
+        <v>44562</v>
       </c>
       <c r="D460">
         <v>2072037.28</v>
@@ -10970,8 +10974,8 @@
       <c r="B461" t="s">
         <v>82</v>
       </c>
-      <c r="C461">
-        <v>2023</v>
+      <c r="C461" s="2">
+        <v>44927</v>
       </c>
       <c r="D461">
         <v>1880847.81</v>
@@ -10990,8 +10994,8 @@
       <c r="B462" t="s">
         <v>83</v>
       </c>
-      <c r="C462">
-        <v>2018</v>
+      <c r="C462" s="2">
+        <v>43101</v>
       </c>
       <c r="D462">
         <v>33851.89</v>
@@ -11013,8 +11017,8 @@
       <c r="B463" t="s">
         <v>84</v>
       </c>
-      <c r="C463">
-        <v>2015</v>
+      <c r="C463" s="2">
+        <v>42005</v>
       </c>
       <c r="D463">
         <v>15307.36</v>
@@ -11033,8 +11037,8 @@
       <c r="B464" t="s">
         <v>84</v>
       </c>
-      <c r="C464">
-        <v>2016</v>
+      <c r="C464" s="2">
+        <v>42370</v>
       </c>
       <c r="D464">
         <v>179950.61</v>
@@ -11056,8 +11060,8 @@
       <c r="B465" t="s">
         <v>84</v>
       </c>
-      <c r="C465">
-        <v>2017</v>
+      <c r="C465" s="2">
+        <v>42736</v>
       </c>
       <c r="D465">
         <v>151409.09</v>
@@ -11079,8 +11083,8 @@
       <c r="B466" t="s">
         <v>84</v>
       </c>
-      <c r="C466">
-        <v>2018</v>
+      <c r="C466" s="2">
+        <v>43101</v>
       </c>
       <c r="D466">
         <v>1093962.05</v>
@@ -11102,8 +11106,8 @@
       <c r="B467" t="s">
         <v>84</v>
       </c>
-      <c r="C467">
-        <v>2019</v>
+      <c r="C467" s="2">
+        <v>43466</v>
       </c>
       <c r="D467">
         <v>1036504.97</v>
@@ -11122,8 +11126,8 @@
       <c r="B468" t="s">
         <v>84</v>
       </c>
-      <c r="C468">
-        <v>2020</v>
+      <c r="C468" s="2">
+        <v>43831</v>
       </c>
       <c r="D468">
         <v>792055.6899999999</v>
@@ -11145,8 +11149,8 @@
       <c r="B469" t="s">
         <v>84</v>
       </c>
-      <c r="C469">
-        <v>2021</v>
+      <c r="C469" s="2">
+        <v>44197</v>
       </c>
       <c r="D469">
         <v>557516.27</v>
@@ -11165,8 +11169,8 @@
       <c r="B470" t="s">
         <v>84</v>
       </c>
-      <c r="C470">
-        <v>2022</v>
+      <c r="C470" s="2">
+        <v>44562</v>
       </c>
       <c r="D470">
         <v>1720555.86</v>
@@ -11185,8 +11189,8 @@
       <c r="B471" t="s">
         <v>84</v>
       </c>
-      <c r="C471">
-        <v>2023</v>
+      <c r="C471" s="2">
+        <v>44927</v>
       </c>
       <c r="D471">
         <v>841631.74</v>
@@ -11208,8 +11212,8 @@
       <c r="B472" t="s">
         <v>85</v>
       </c>
-      <c r="C472">
-        <v>2016</v>
+      <c r="C472" s="2">
+        <v>42370</v>
       </c>
       <c r="D472">
         <v>28891.17</v>
@@ -11231,8 +11235,8 @@
       <c r="B473" t="s">
         <v>85</v>
       </c>
-      <c r="C473">
-        <v>2017</v>
+      <c r="C473" s="2">
+        <v>42736</v>
       </c>
       <c r="D473">
         <v>182038.12</v>
@@ -11254,8 +11258,8 @@
       <c r="B474" t="s">
         <v>85</v>
       </c>
-      <c r="C474">
-        <v>2018</v>
+      <c r="C474" s="2">
+        <v>43101</v>
       </c>
       <c r="D474">
         <v>495240.56</v>
@@ -11277,8 +11281,8 @@
       <c r="B475" t="s">
         <v>85</v>
       </c>
-      <c r="C475">
-        <v>2019</v>
+      <c r="C475" s="2">
+        <v>43466</v>
       </c>
       <c r="D475">
         <v>750000</v>
@@ -11297,8 +11301,8 @@
       <c r="B476" t="s">
         <v>85</v>
       </c>
-      <c r="C476">
-        <v>2020</v>
+      <c r="C476" s="2">
+        <v>43831</v>
       </c>
       <c r="D476">
         <v>384344.46</v>
@@ -11317,8 +11321,8 @@
       <c r="B477" t="s">
         <v>85</v>
       </c>
-      <c r="C477">
-        <v>2021</v>
+      <c r="C477" s="2">
+        <v>44197</v>
       </c>
       <c r="D477">
         <v>1388048.86</v>
@@ -11337,8 +11341,8 @@
       <c r="B478" t="s">
         <v>85</v>
       </c>
-      <c r="C478">
-        <v>2022</v>
+      <c r="C478" s="2">
+        <v>44562</v>
       </c>
       <c r="D478">
         <v>1338091.43</v>
@@ -11360,8 +11364,8 @@
       <c r="B479" t="s">
         <v>85</v>
       </c>
-      <c r="C479">
-        <v>2023</v>
+      <c r="C479" s="2">
+        <v>44927</v>
       </c>
       <c r="D479">
         <v>1316705.06</v>
@@ -11380,8 +11384,8 @@
       <c r="B480" t="s">
         <v>86</v>
       </c>
-      <c r="C480">
-        <v>2017</v>
+      <c r="C480" s="2">
+        <v>42736</v>
       </c>
       <c r="D480">
         <v>7614.67</v>
@@ -11403,8 +11407,8 @@
       <c r="B481" t="s">
         <v>86</v>
       </c>
-      <c r="C481">
-        <v>2018</v>
+      <c r="C481" s="2">
+        <v>43101</v>
       </c>
       <c r="D481">
         <v>34222.14</v>
@@ -11426,8 +11430,8 @@
       <c r="B482" t="s">
         <v>86</v>
       </c>
-      <c r="C482">
-        <v>2019</v>
+      <c r="C482" s="2">
+        <v>43466</v>
       </c>
       <c r="D482">
         <v>7805.77</v>
@@ -11446,8 +11450,8 @@
       <c r="B483" t="s">
         <v>87</v>
       </c>
-      <c r="C483">
-        <v>2016</v>
+      <c r="C483" s="2">
+        <v>42370</v>
       </c>
       <c r="D483">
         <v>65964.7</v>
@@ -11466,8 +11470,8 @@
       <c r="B484" t="s">
         <v>87</v>
       </c>
-      <c r="C484">
-        <v>2017</v>
+      <c r="C484" s="2">
+        <v>42736</v>
       </c>
       <c r="D484">
         <v>526669.34</v>
@@ -11489,8 +11493,8 @@
       <c r="B485" t="s">
         <v>87</v>
       </c>
-      <c r="C485">
-        <v>2018</v>
+      <c r="C485" s="2">
+        <v>43101</v>
       </c>
       <c r="D485">
         <v>697644.83</v>
@@ -11512,8 +11516,8 @@
       <c r="B486" t="s">
         <v>87</v>
       </c>
-      <c r="C486">
-        <v>2019</v>
+      <c r="C486" s="2">
+        <v>43466</v>
       </c>
       <c r="D486">
         <v>527537.08</v>
@@ -11532,8 +11536,8 @@
       <c r="B487" t="s">
         <v>87</v>
       </c>
-      <c r="C487">
-        <v>2020</v>
+      <c r="C487" s="2">
+        <v>43831</v>
       </c>
       <c r="D487">
         <v>615160.48</v>
@@ -11552,8 +11556,8 @@
       <c r="B488" t="s">
         <v>87</v>
       </c>
-      <c r="C488">
-        <v>2021</v>
+      <c r="C488" s="2">
+        <v>44197</v>
       </c>
       <c r="D488">
         <v>238919.6</v>
@@ -11575,8 +11579,8 @@
       <c r="B489" t="s">
         <v>88</v>
       </c>
-      <c r="C489">
-        <v>2019</v>
+      <c r="C489" s="2">
+        <v>43466</v>
       </c>
       <c r="D489">
         <v>139214.1</v>
@@ -11595,8 +11599,8 @@
       <c r="B490" t="s">
         <v>89</v>
       </c>
-      <c r="C490">
-        <v>2018</v>
+      <c r="C490" s="2">
+        <v>43101</v>
       </c>
       <c r="D490">
         <v>44157.12</v>
@@ -11618,8 +11622,8 @@
       <c r="B491" t="s">
         <v>89</v>
       </c>
-      <c r="C491">
-        <v>2019</v>
+      <c r="C491" s="2">
+        <v>43466</v>
       </c>
       <c r="D491">
         <v>37929.87</v>
@@ -11638,8 +11642,8 @@
       <c r="B492" t="s">
         <v>89</v>
       </c>
-      <c r="C492">
-        <v>2020</v>
+      <c r="C492" s="2">
+        <v>43831</v>
       </c>
       <c r="D492">
         <v>45901.89</v>
@@ -11661,8 +11665,8 @@
       <c r="B493" t="s">
         <v>90</v>
       </c>
-      <c r="C493">
-        <v>2017</v>
+      <c r="C493" s="2">
+        <v>42736</v>
       </c>
       <c r="D493">
         <v>13144.84</v>
@@ -11681,8 +11685,8 @@
       <c r="B494" t="s">
         <v>90</v>
       </c>
-      <c r="C494">
-        <v>2018</v>
+      <c r="C494" s="2">
+        <v>43101</v>
       </c>
       <c r="D494">
         <v>255530.9</v>
@@ -11704,8 +11708,8 @@
       <c r="B495" t="s">
         <v>90</v>
       </c>
-      <c r="C495">
-        <v>2019</v>
+      <c r="C495" s="2">
+        <v>43466</v>
       </c>
       <c r="D495">
         <v>241594.87</v>
@@ -11724,8 +11728,8 @@
       <c r="B496" t="s">
         <v>90</v>
       </c>
-      <c r="C496">
-        <v>2020</v>
+      <c r="C496" s="2">
+        <v>43831</v>
       </c>
       <c r="D496">
         <v>298114.43</v>
@@ -11747,8 +11751,8 @@
       <c r="B497" t="s">
         <v>90</v>
       </c>
-      <c r="C497">
-        <v>2021</v>
+      <c r="C497" s="2">
+        <v>44197</v>
       </c>
       <c r="D497">
         <v>1154078.41</v>
@@ -11767,8 +11771,8 @@
       <c r="B498" t="s">
         <v>90</v>
       </c>
-      <c r="C498">
-        <v>2022</v>
+      <c r="C498" s="2">
+        <v>44562</v>
       </c>
       <c r="D498">
         <v>519022.97</v>
@@ -11787,8 +11791,8 @@
       <c r="B499" t="s">
         <v>90</v>
       </c>
-      <c r="C499">
-        <v>2023</v>
+      <c r="C499" s="2">
+        <v>44927</v>
       </c>
       <c r="D499">
         <v>390471</v>
@@ -11810,8 +11814,8 @@
       <c r="B500" t="s">
         <v>91</v>
       </c>
-      <c r="C500">
-        <v>2020</v>
+      <c r="C500" s="2">
+        <v>43831</v>
       </c>
       <c r="D500">
         <v>280094.52</v>
@@ -11833,8 +11837,8 @@
       <c r="B501" t="s">
         <v>91</v>
       </c>
-      <c r="C501">
-        <v>2021</v>
+      <c r="C501" s="2">
+        <v>44197</v>
       </c>
       <c r="D501">
         <v>2896531.67</v>
@@ -11856,8 +11860,8 @@
       <c r="B502" t="s">
         <v>91</v>
       </c>
-      <c r="C502">
-        <v>2022</v>
+      <c r="C502" s="2">
+        <v>44562</v>
       </c>
       <c r="D502">
         <v>6860353.65</v>
@@ -11879,8 +11883,8 @@
       <c r="B503" t="s">
         <v>91</v>
       </c>
-      <c r="C503">
-        <v>2023</v>
+      <c r="C503" s="2">
+        <v>44927</v>
       </c>
       <c r="D503">
         <v>2539166.62</v>
@@ -11899,8 +11903,8 @@
       <c r="B504" t="s">
         <v>92</v>
       </c>
-      <c r="C504">
-        <v>2017</v>
+      <c r="C504" s="2">
+        <v>42736</v>
       </c>
       <c r="D504">
         <v>82389.49000000001</v>
@@ -11922,8 +11926,8 @@
       <c r="B505" t="s">
         <v>93</v>
       </c>
-      <c r="C505">
-        <v>2016</v>
+      <c r="C505" s="2">
+        <v>42370</v>
       </c>
       <c r="D505">
         <v>66813.27</v>
@@ -11945,8 +11949,8 @@
       <c r="B506" t="s">
         <v>94</v>
       </c>
-      <c r="C506">
-        <v>2018</v>
+      <c r="C506" s="2">
+        <v>43101</v>
       </c>
       <c r="D506">
         <v>41492</v>
@@ -11968,8 +11972,8 @@
       <c r="B507" t="s">
         <v>95</v>
       </c>
-      <c r="C507">
-        <v>2019</v>
+      <c r="C507" s="2">
+        <v>43466</v>
       </c>
       <c r="D507">
         <v>24413.3</v>
@@ -11988,8 +11992,8 @@
       <c r="B508" t="s">
         <v>95</v>
       </c>
-      <c r="C508">
-        <v>2020</v>
+      <c r="C508" s="2">
+        <v>43831</v>
       </c>
       <c r="D508">
         <v>161728.98</v>
@@ -12008,8 +12012,8 @@
       <c r="B509" t="s">
         <v>95</v>
       </c>
-      <c r="C509">
-        <v>2021</v>
+      <c r="C509" s="2">
+        <v>44197</v>
       </c>
       <c r="D509">
         <v>517348.12</v>
@@ -12028,8 +12032,8 @@
       <c r="B510" t="s">
         <v>95</v>
       </c>
-      <c r="C510">
-        <v>2022</v>
+      <c r="C510" s="2">
+        <v>44562</v>
       </c>
       <c r="D510">
         <v>480929.23</v>
@@ -12051,8 +12055,8 @@
       <c r="B511" t="s">
         <v>95</v>
       </c>
-      <c r="C511">
-        <v>2023</v>
+      <c r="C511" s="2">
+        <v>44927</v>
       </c>
       <c r="D511">
         <v>0.02</v>
@@ -12074,8 +12078,8 @@
       <c r="B512" t="s">
         <v>96</v>
       </c>
-      <c r="C512">
-        <v>2017</v>
+      <c r="C512" s="2">
+        <v>42736</v>
       </c>
       <c r="D512">
         <v>70584.38</v>
@@ -12097,8 +12101,8 @@
       <c r="B513" t="s">
         <v>96</v>
       </c>
-      <c r="C513">
-        <v>2018</v>
+      <c r="C513" s="2">
+        <v>43101</v>
       </c>
       <c r="D513">
         <v>443711.53</v>
@@ -12120,8 +12124,8 @@
       <c r="B514" t="s">
         <v>96</v>
       </c>
-      <c r="C514">
-        <v>2019</v>
+      <c r="C514" s="2">
+        <v>43466</v>
       </c>
       <c r="D514">
         <v>1036023.05</v>
@@ -12140,8 +12144,8 @@
       <c r="B515" t="s">
         <v>96</v>
       </c>
-      <c r="C515">
-        <v>2020</v>
+      <c r="C515" s="2">
+        <v>43831</v>
       </c>
       <c r="D515">
         <v>775420.47</v>
@@ -12160,8 +12164,8 @@
       <c r="B516" t="s">
         <v>96</v>
       </c>
-      <c r="C516">
-        <v>2021</v>
+      <c r="C516" s="2">
+        <v>44197</v>
       </c>
       <c r="D516">
         <v>2415512.63</v>
@@ -12180,8 +12184,8 @@
       <c r="B517" t="s">
         <v>96</v>
       </c>
-      <c r="C517">
-        <v>2022</v>
+      <c r="C517" s="2">
+        <v>44562</v>
       </c>
       <c r="D517">
         <v>1454531.5</v>
@@ -12203,8 +12207,8 @@
       <c r="B518" t="s">
         <v>96</v>
       </c>
-      <c r="C518">
-        <v>2023</v>
+      <c r="C518" s="2">
+        <v>44927</v>
       </c>
       <c r="D518">
         <v>1671068.36</v>
@@ -12223,8 +12227,8 @@
       <c r="B519" t="s">
         <v>97</v>
       </c>
-      <c r="C519">
-        <v>2018</v>
+      <c r="C519" s="2">
+        <v>43101</v>
       </c>
       <c r="D519">
         <v>0</v>
@@ -12243,8 +12247,8 @@
       <c r="B520" t="s">
         <v>97</v>
       </c>
-      <c r="C520">
-        <v>2019</v>
+      <c r="C520" s="2">
+        <v>43466</v>
       </c>
       <c r="D520">
         <v>0</v>
@@ -12263,8 +12267,8 @@
       <c r="B521" t="s">
         <v>97</v>
       </c>
-      <c r="C521">
-        <v>2020</v>
+      <c r="C521" s="2">
+        <v>43831</v>
       </c>
       <c r="D521">
         <v>312231.6</v>
@@ -12286,8 +12290,8 @@
       <c r="B522" t="s">
         <v>97</v>
       </c>
-      <c r="C522">
-        <v>2021</v>
+      <c r="C522" s="2">
+        <v>44197</v>
       </c>
       <c r="D522">
         <v>321857.16</v>
@@ -12306,8 +12310,8 @@
       <c r="B523" t="s">
         <v>97</v>
       </c>
-      <c r="C523">
-        <v>2022</v>
+      <c r="C523" s="2">
+        <v>44562</v>
       </c>
       <c r="D523">
         <v>106661.66</v>
@@ -12326,8 +12330,8 @@
       <c r="B524" t="s">
         <v>98</v>
       </c>
-      <c r="C524">
-        <v>2021</v>
+      <c r="C524" s="2">
+        <v>44197</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -12346,8 +12350,8 @@
       <c r="B525" t="s">
         <v>98</v>
       </c>
-      <c r="C525">
-        <v>2022</v>
+      <c r="C525" s="2">
+        <v>44562</v>
       </c>
       <c r="D525">
         <v>448998</v>
@@ -12366,8 +12370,8 @@
       <c r="B526" t="s">
         <v>98</v>
       </c>
-      <c r="C526">
-        <v>2023</v>
+      <c r="C526" s="2">
+        <v>44927</v>
       </c>
       <c r="D526">
         <v>503941.43</v>
@@ -12389,8 +12393,8 @@
       <c r="B527" t="s">
         <v>99</v>
       </c>
-      <c r="C527">
-        <v>2021</v>
+      <c r="C527" s="2">
+        <v>44197</v>
       </c>
       <c r="D527">
         <v>63808</v>
@@ -12409,8 +12413,8 @@
       <c r="B528" t="s">
         <v>100</v>
       </c>
-      <c r="C528">
-        <v>2018</v>
+      <c r="C528" s="2">
+        <v>43101</v>
       </c>
       <c r="D528">
         <v>0</v>
@@ -12429,8 +12433,8 @@
       <c r="B529" t="s">
         <v>100</v>
       </c>
-      <c r="C529">
-        <v>2019</v>
+      <c r="C529" s="2">
+        <v>43466</v>
       </c>
       <c r="D529">
         <v>0</v>
@@ -12449,8 +12453,8 @@
       <c r="B530" t="s">
         <v>100</v>
       </c>
-      <c r="C530">
-        <v>2020</v>
+      <c r="C530" s="2">
+        <v>43831</v>
       </c>
       <c r="D530">
         <v>372350.46</v>
@@ -12469,8 +12473,8 @@
       <c r="B531" t="s">
         <v>100</v>
       </c>
-      <c r="C531">
-        <v>2021</v>
+      <c r="C531" s="2">
+        <v>44197</v>
       </c>
       <c r="D531">
         <v>155187.2</v>
@@ -12489,8 +12493,8 @@
       <c r="B532" t="s">
         <v>100</v>
       </c>
-      <c r="C532">
-        <v>2022</v>
+      <c r="C532" s="2">
+        <v>44562</v>
       </c>
       <c r="D532">
         <v>219405.09</v>
@@ -12509,8 +12513,8 @@
       <c r="B533" t="s">
         <v>100</v>
       </c>
-      <c r="C533">
-        <v>2023</v>
+      <c r="C533" s="2">
+        <v>44927</v>
       </c>
       <c r="D533">
         <v>69473.71000000001</v>
@@ -12532,8 +12536,8 @@
       <c r="B534" t="s">
         <v>101</v>
       </c>
-      <c r="C534">
-        <v>2018</v>
+      <c r="C534" s="2">
+        <v>43101</v>
       </c>
       <c r="D534">
         <v>37529.86</v>
@@ -12555,8 +12559,8 @@
       <c r="B535" t="s">
         <v>101</v>
       </c>
-      <c r="C535">
-        <v>2019</v>
+      <c r="C535" s="2">
+        <v>43466</v>
       </c>
       <c r="D535">
         <v>528235.8100000001</v>
@@ -12575,8 +12579,8 @@
       <c r="B536" t="s">
         <v>101</v>
       </c>
-      <c r="C536">
-        <v>2020</v>
+      <c r="C536" s="2">
+        <v>43831</v>
       </c>
       <c r="D536">
         <v>82224.48</v>
@@ -12595,8 +12599,8 @@
       <c r="B537" t="s">
         <v>101</v>
       </c>
-      <c r="C537">
-        <v>2021</v>
+      <c r="C537" s="2">
+        <v>44197</v>
       </c>
       <c r="D537">
         <v>49988.75</v>
@@ -12615,8 +12619,8 @@
       <c r="B538" t="s">
         <v>102</v>
       </c>
-      <c r="C538">
-        <v>2017</v>
+      <c r="C538" s="2">
+        <v>42736</v>
       </c>
       <c r="D538">
         <v>9608.26</v>
@@ -12635,8 +12639,8 @@
       <c r="B539" t="s">
         <v>102</v>
       </c>
-      <c r="C539">
-        <v>2018</v>
+      <c r="C539" s="2">
+        <v>43101</v>
       </c>
       <c r="D539">
         <v>78192.88</v>
@@ -12658,8 +12662,8 @@
       <c r="B540" t="s">
         <v>102</v>
       </c>
-      <c r="C540">
-        <v>2019</v>
+      <c r="C540" s="2">
+        <v>43466</v>
       </c>
       <c r="D540">
         <v>500000</v>
@@ -12678,8 +12682,8 @@
       <c r="B541" t="s">
         <v>102</v>
       </c>
-      <c r="C541">
-        <v>2020</v>
+      <c r="C541" s="2">
+        <v>43831</v>
       </c>
       <c r="D541">
         <v>203399.11</v>
@@ -12698,8 +12702,8 @@
       <c r="B542" t="s">
         <v>102</v>
       </c>
-      <c r="C542">
-        <v>2021</v>
+      <c r="C542" s="2">
+        <v>44197</v>
       </c>
       <c r="D542">
         <v>669664.71</v>
@@ -12721,8 +12725,8 @@
       <c r="B543" t="s">
         <v>102</v>
       </c>
-      <c r="C543">
-        <v>2022</v>
+      <c r="C543" s="2">
+        <v>44562</v>
       </c>
       <c r="D543">
         <v>300551.71</v>
@@ -12744,8 +12748,8 @@
       <c r="B544" t="s">
         <v>102</v>
       </c>
-      <c r="C544">
-        <v>2023</v>
+      <c r="C544" s="2">
+        <v>44927</v>
       </c>
       <c r="D544">
         <v>285239.45</v>
@@ -12767,8 +12771,8 @@
       <c r="B545" t="s">
         <v>103</v>
       </c>
-      <c r="C545">
-        <v>2018</v>
+      <c r="C545" s="2">
+        <v>43101</v>
       </c>
       <c r="D545">
         <v>74485.7</v>
@@ -12790,8 +12794,8 @@
       <c r="B546" t="s">
         <v>103</v>
       </c>
-      <c r="C546">
-        <v>2019</v>
+      <c r="C546" s="2">
+        <v>43466</v>
       </c>
       <c r="D546">
         <v>93102.03999999999</v>
@@ -12810,8 +12814,8 @@
       <c r="B547" t="s">
         <v>103</v>
       </c>
-      <c r="C547">
-        <v>2020</v>
+      <c r="C547" s="2">
+        <v>43831</v>
       </c>
       <c r="D547">
         <v>220520.1</v>
@@ -12830,8 +12834,8 @@
       <c r="B548" t="s">
         <v>103</v>
       </c>
-      <c r="C548">
-        <v>2021</v>
+      <c r="C548" s="2">
+        <v>44197</v>
       </c>
       <c r="D548">
         <v>142282.67</v>
@@ -12853,8 +12857,8 @@
       <c r="B549" t="s">
         <v>103</v>
       </c>
-      <c r="C549">
-        <v>2022</v>
+      <c r="C549" s="2">
+        <v>44562</v>
       </c>
       <c r="D549">
         <v>534265.99</v>
@@ -12876,8 +12880,8 @@
       <c r="B550" t="s">
         <v>103</v>
       </c>
-      <c r="C550">
-        <v>2023</v>
+      <c r="C550" s="2">
+        <v>44927</v>
       </c>
       <c r="D550">
         <v>559652.39</v>
@@ -12899,8 +12903,8 @@
       <c r="B551" t="s">
         <v>104</v>
       </c>
-      <c r="C551">
-        <v>2018</v>
+      <c r="C551" s="2">
+        <v>43101</v>
       </c>
       <c r="D551">
         <v>0</v>
@@ -12919,8 +12923,8 @@
       <c r="B552" t="s">
         <v>104</v>
       </c>
-      <c r="C552">
-        <v>2019</v>
+      <c r="C552" s="2">
+        <v>43466</v>
       </c>
       <c r="D552">
         <v>507227.98</v>
@@ -12939,8 +12943,8 @@
       <c r="B553" t="s">
         <v>104</v>
       </c>
-      <c r="C553">
-        <v>2020</v>
+      <c r="C553" s="2">
+        <v>43831</v>
       </c>
       <c r="D553">
         <v>578901.48</v>
@@ -12962,8 +12966,8 @@
       <c r="B554" t="s">
         <v>104</v>
       </c>
-      <c r="C554">
-        <v>2021</v>
+      <c r="C554" s="2">
+        <v>44197</v>
       </c>
       <c r="D554">
         <v>1073553.31</v>
@@ -12982,8 +12986,8 @@
       <c r="B555" t="s">
         <v>104</v>
       </c>
-      <c r="C555">
-        <v>2022</v>
+      <c r="C555" s="2">
+        <v>44562</v>
       </c>
       <c r="D555">
         <v>1275765.06</v>
@@ -13002,8 +13006,8 @@
       <c r="B556" t="s">
         <v>104</v>
       </c>
-      <c r="C556">
-        <v>2023</v>
+      <c r="C556" s="2">
+        <v>44927</v>
       </c>
       <c r="D556">
         <v>1322454.68</v>
@@ -13025,8 +13029,8 @@
       <c r="B557" t="s">
         <v>105</v>
       </c>
-      <c r="C557">
-        <v>2022</v>
+      <c r="C557" s="2">
+        <v>44562</v>
       </c>
       <c r="D557">
         <v>0</v>
@@ -13045,8 +13049,8 @@
       <c r="B558" t="s">
         <v>105</v>
       </c>
-      <c r="C558">
-        <v>2023</v>
+      <c r="C558" s="2">
+        <v>44927</v>
       </c>
       <c r="D558">
         <v>293149.93</v>
@@ -13065,8 +13069,8 @@
       <c r="B559" t="s">
         <v>106</v>
       </c>
-      <c r="C559">
-        <v>2019</v>
+      <c r="C559" s="2">
+        <v>43466</v>
       </c>
       <c r="D559">
         <v>477800.03</v>
@@ -13085,8 +13089,8 @@
       <c r="B560" t="s">
         <v>106</v>
       </c>
-      <c r="C560">
-        <v>2020</v>
+      <c r="C560" s="2">
+        <v>43831</v>
       </c>
       <c r="D560">
         <v>188294.71</v>
@@ -13105,8 +13109,8 @@
       <c r="B561" t="s">
         <v>106</v>
       </c>
-      <c r="C561">
-        <v>2021</v>
+      <c r="C561" s="2">
+        <v>44197</v>
       </c>
       <c r="D561">
         <v>505000</v>
@@ -13125,8 +13129,8 @@
       <c r="B562" t="s">
         <v>106</v>
       </c>
-      <c r="C562">
-        <v>2022</v>
+      <c r="C562" s="2">
+        <v>44562</v>
       </c>
       <c r="D562">
         <v>0</v>
@@ -13148,8 +13152,8 @@
       <c r="B563" t="s">
         <v>106</v>
       </c>
-      <c r="C563">
-        <v>2023</v>
+      <c r="C563" s="2">
+        <v>44927</v>
       </c>
       <c r="D563">
         <v>264000</v>
@@ -13171,8 +13175,8 @@
       <c r="B564" t="s">
         <v>107</v>
       </c>
-      <c r="C564">
-        <v>2019</v>
+      <c r="C564" s="2">
+        <v>43466</v>
       </c>
       <c r="D564">
         <v>105013.87</v>
@@ -13191,8 +13195,8 @@
       <c r="B565" t="s">
         <v>107</v>
       </c>
-      <c r="C565">
-        <v>2020</v>
+      <c r="C565" s="2">
+        <v>43831</v>
       </c>
       <c r="D565">
         <v>540193.8100000001</v>
@@ -13211,8 +13215,8 @@
       <c r="B566" t="s">
         <v>107</v>
       </c>
-      <c r="C566">
-        <v>2021</v>
+      <c r="C566" s="2">
+        <v>44197</v>
       </c>
       <c r="D566">
         <v>879215.85</v>
@@ -13231,8 +13235,8 @@
       <c r="B567" t="s">
         <v>107</v>
       </c>
-      <c r="C567">
-        <v>2022</v>
+      <c r="C567" s="2">
+        <v>44562</v>
       </c>
       <c r="D567">
         <v>1436912.57</v>
@@ -13254,8 +13258,8 @@
       <c r="B568" t="s">
         <v>107</v>
       </c>
-      <c r="C568">
-        <v>2023</v>
+      <c r="C568" s="2">
+        <v>44927</v>
       </c>
       <c r="D568">
         <v>211772.22</v>
@@ -13274,8 +13278,8 @@
       <c r="B569" t="s">
         <v>108</v>
       </c>
-      <c r="C569">
-        <v>2019</v>
+      <c r="C569" s="2">
+        <v>43466</v>
       </c>
       <c r="D569">
         <v>138816.34</v>
@@ -13294,8 +13298,8 @@
       <c r="B570" t="s">
         <v>108</v>
       </c>
-      <c r="C570">
-        <v>2020</v>
+      <c r="C570" s="2">
+        <v>43831</v>
       </c>
       <c r="D570">
         <v>266162.69</v>
@@ -13317,8 +13321,8 @@
       <c r="B571" t="s">
         <v>108</v>
       </c>
-      <c r="C571">
-        <v>2021</v>
+      <c r="C571" s="2">
+        <v>44197</v>
       </c>
       <c r="D571">
         <v>1172890.81</v>
@@ -13337,8 +13341,8 @@
       <c r="B572" t="s">
         <v>108</v>
       </c>
-      <c r="C572">
-        <v>2022</v>
+      <c r="C572" s="2">
+        <v>44562</v>
       </c>
       <c r="D572">
         <v>1028716.31</v>
@@ -13357,8 +13361,8 @@
       <c r="B573" t="s">
         <v>108</v>
       </c>
-      <c r="C573">
-        <v>2023</v>
+      <c r="C573" s="2">
+        <v>44927</v>
       </c>
       <c r="D573">
         <v>1656749.82</v>
@@ -13380,8 +13384,8 @@
       <c r="B574" t="s">
         <v>109</v>
       </c>
-      <c r="C574">
-        <v>2019</v>
+      <c r="C574" s="2">
+        <v>43466</v>
       </c>
       <c r="D574">
         <v>2002679.75</v>
@@ -13400,8 +13404,8 @@
       <c r="B575" t="s">
         <v>109</v>
       </c>
-      <c r="C575">
-        <v>2020</v>
+      <c r="C575" s="2">
+        <v>43831</v>
       </c>
       <c r="D575">
         <v>521658.46</v>
@@ -13423,8 +13427,8 @@
       <c r="B576" t="s">
         <v>109</v>
       </c>
-      <c r="C576">
-        <v>2021</v>
+      <c r="C576" s="2">
+        <v>44197</v>
       </c>
       <c r="D576">
         <v>1526515.46</v>
@@ -13443,8 +13447,8 @@
       <c r="B577" t="s">
         <v>109</v>
       </c>
-      <c r="C577">
-        <v>2022</v>
+      <c r="C577" s="2">
+        <v>44562</v>
       </c>
       <c r="D577">
         <v>2297255.69</v>
@@ -13463,8 +13467,8 @@
       <c r="B578" t="s">
         <v>109</v>
       </c>
-      <c r="C578">
-        <v>2023</v>
+      <c r="C578" s="2">
+        <v>44927</v>
       </c>
       <c r="D578">
         <v>1442550.8</v>
@@ -13486,8 +13490,8 @@
       <c r="B579" t="s">
         <v>110</v>
       </c>
-      <c r="C579">
-        <v>2019</v>
+      <c r="C579" s="2">
+        <v>43466</v>
       </c>
       <c r="D579">
         <v>126402</v>
@@ -13506,8 +13510,8 @@
       <c r="B580" t="s">
         <v>110</v>
       </c>
-      <c r="C580">
-        <v>2020</v>
+      <c r="C580" s="2">
+        <v>43831</v>
       </c>
       <c r="D580">
         <v>224564.79</v>
@@ -13529,8 +13533,8 @@
       <c r="B581" t="s">
         <v>110</v>
       </c>
-      <c r="C581">
-        <v>2021</v>
+      <c r="C581" s="2">
+        <v>44197</v>
       </c>
       <c r="D581">
         <v>600068.2</v>
@@ -13549,8 +13553,8 @@
       <c r="B582" t="s">
         <v>110</v>
       </c>
-      <c r="C582">
-        <v>2022</v>
+      <c r="C582" s="2">
+        <v>44562</v>
       </c>
       <c r="D582">
         <v>159527.4</v>
@@ -13569,8 +13573,8 @@
       <c r="B583" t="s">
         <v>110</v>
       </c>
-      <c r="C583">
-        <v>2023</v>
+      <c r="C583" s="2">
+        <v>44927</v>
       </c>
       <c r="D583">
         <v>525082.12</v>
@@ -13592,8 +13596,8 @@
       <c r="B584" t="s">
         <v>111</v>
       </c>
-      <c r="C584">
-        <v>2021</v>
+      <c r="C584" s="2">
+        <v>44197</v>
       </c>
       <c r="D584">
         <v>113416.6</v>
@@ -13612,8 +13616,8 @@
       <c r="B585" t="s">
         <v>111</v>
       </c>
-      <c r="C585">
-        <v>2022</v>
+      <c r="C585" s="2">
+        <v>44562</v>
       </c>
       <c r="D585">
         <v>197946.32</v>
@@ -13635,8 +13639,8 @@
       <c r="B586" t="s">
         <v>111</v>
       </c>
-      <c r="C586">
-        <v>2023</v>
+      <c r="C586" s="2">
+        <v>44927</v>
       </c>
       <c r="D586">
         <v>1102303.92</v>
@@ -13658,8 +13662,8 @@
       <c r="B587" t="s">
         <v>112</v>
       </c>
-      <c r="C587">
-        <v>2019</v>
+      <c r="C587" s="2">
+        <v>43466</v>
       </c>
       <c r="D587">
         <v>321407.74</v>
@@ -13678,8 +13682,8 @@
       <c r="B588" t="s">
         <v>112</v>
       </c>
-      <c r="C588">
-        <v>2020</v>
+      <c r="C588" s="2">
+        <v>43831</v>
       </c>
       <c r="D588">
         <v>526655.6800000001</v>
@@ -13701,8 +13705,8 @@
       <c r="B589" t="s">
         <v>112</v>
       </c>
-      <c r="C589">
-        <v>2021</v>
+      <c r="C589" s="2">
+        <v>44197</v>
       </c>
       <c r="D589">
         <v>1321450.03</v>
@@ -13721,8 +13725,8 @@
       <c r="B590" t="s">
         <v>112</v>
       </c>
-      <c r="C590">
-        <v>2022</v>
+      <c r="C590" s="2">
+        <v>44562</v>
       </c>
       <c r="D590">
         <v>9082275.140000001</v>
@@ -13741,8 +13745,8 @@
       <c r="B591" t="s">
         <v>112</v>
       </c>
-      <c r="C591">
-        <v>2023</v>
+      <c r="C591" s="2">
+        <v>44927</v>
       </c>
       <c r="D591">
         <v>708397.02</v>
@@ -13764,8 +13768,8 @@
       <c r="B592" t="s">
         <v>113</v>
       </c>
-      <c r="C592">
-        <v>2020</v>
+      <c r="C592" s="2">
+        <v>43831</v>
       </c>
       <c r="D592">
         <v>5202</v>
@@ -13787,8 +13791,8 @@
       <c r="B593" t="s">
         <v>114</v>
       </c>
-      <c r="C593">
-        <v>2021</v>
+      <c r="C593" s="2">
+        <v>44197</v>
       </c>
       <c r="D593">
         <v>796.2</v>
@@ -13807,8 +13811,8 @@
       <c r="B594" t="s">
         <v>114</v>
       </c>
-      <c r="C594">
-        <v>2022</v>
+      <c r="C594" s="2">
+        <v>44562</v>
       </c>
       <c r="D594">
         <v>273804.98</v>
@@ -13830,8 +13834,8 @@
       <c r="B595" t="s">
         <v>114</v>
       </c>
-      <c r="C595">
-        <v>2023</v>
+      <c r="C595" s="2">
+        <v>44927</v>
       </c>
       <c r="D595">
         <v>537555.01</v>
@@ -13850,8 +13854,8 @@
       <c r="B596" t="s">
         <v>115</v>
       </c>
-      <c r="C596">
-        <v>2020</v>
+      <c r="C596" s="2">
+        <v>43831</v>
       </c>
       <c r="D596">
         <v>5202</v>
@@ -13873,8 +13877,8 @@
       <c r="B597" t="s">
         <v>116</v>
       </c>
-      <c r="C597">
-        <v>2020</v>
+      <c r="C597" s="2">
+        <v>43831</v>
       </c>
       <c r="D597">
         <v>15917.94</v>
@@ -13893,8 +13897,8 @@
       <c r="B598" t="s">
         <v>116</v>
       </c>
-      <c r="C598">
-        <v>2021</v>
+      <c r="C598" s="2">
+        <v>44197</v>
       </c>
       <c r="D598">
         <v>304663.91</v>
@@ -13916,8 +13920,8 @@
       <c r="B599" t="s">
         <v>116</v>
       </c>
-      <c r="C599">
-        <v>2022</v>
+      <c r="C599" s="2">
+        <v>44562</v>
       </c>
       <c r="D599">
         <v>0.02</v>
@@ -13936,8 +13940,8 @@
       <c r="B600" t="s">
         <v>117</v>
       </c>
-      <c r="C600">
-        <v>2023</v>
+      <c r="C600" s="2">
+        <v>44927</v>
       </c>
       <c r="D600">
         <v>0</v>
@@ -13956,8 +13960,8 @@
       <c r="B601" t="s">
         <v>118</v>
       </c>
-      <c r="C601">
-        <v>2023</v>
+      <c r="C601" s="2">
+        <v>44927</v>
       </c>
       <c r="D601">
         <v>0</v>
@@ -13976,8 +13980,8 @@
       <c r="B602" t="s">
         <v>119</v>
       </c>
-      <c r="C602">
-        <v>2021</v>
+      <c r="C602" s="2">
+        <v>44197</v>
       </c>
       <c r="D602">
         <v>38468.77</v>
@@ -13996,8 +14000,8 @@
       <c r="B603" t="s">
         <v>119</v>
       </c>
-      <c r="C603">
-        <v>2022</v>
+      <c r="C603" s="2">
+        <v>44562</v>
       </c>
       <c r="D603">
         <v>175468.26</v>
@@ -14019,8 +14023,8 @@
       <c r="B604" t="s">
         <v>119</v>
       </c>
-      <c r="C604">
-        <v>2023</v>
+      <c r="C604" s="2">
+        <v>44927</v>
       </c>
       <c r="D604">
         <v>16478</v>
@@ -14042,8 +14046,8 @@
       <c r="B605" t="s">
         <v>120</v>
       </c>
-      <c r="C605">
-        <v>2020</v>
+      <c r="C605" s="2">
+        <v>43831</v>
       </c>
       <c r="D605">
         <v>213333.25</v>
@@ -14062,8 +14066,8 @@
       <c r="B606" t="s">
         <v>120</v>
       </c>
-      <c r="C606">
-        <v>2021</v>
+      <c r="C606" s="2">
+        <v>44197</v>
       </c>
       <c r="D606">
         <v>1059929.2</v>
@@ -14082,8 +14086,8 @@
       <c r="B607" t="s">
         <v>120</v>
       </c>
-      <c r="C607">
-        <v>2022</v>
+      <c r="C607" s="2">
+        <v>44562</v>
       </c>
       <c r="D607">
         <v>1464745.68</v>
@@ -14105,8 +14109,8 @@
       <c r="B608" t="s">
         <v>120</v>
       </c>
-      <c r="C608">
-        <v>2023</v>
+      <c r="C608" s="2">
+        <v>44927</v>
       </c>
       <c r="D608">
         <v>-0.01</v>
@@ -14128,8 +14132,8 @@
       <c r="B609" t="s">
         <v>121</v>
       </c>
-      <c r="C609">
-        <v>2021</v>
+      <c r="C609" s="2">
+        <v>44197</v>
       </c>
       <c r="D609">
         <v>639169.7</v>
@@ -14148,8 +14152,8 @@
       <c r="B610" t="s">
         <v>121</v>
       </c>
-      <c r="C610">
-        <v>2022</v>
+      <c r="C610" s="2">
+        <v>44562</v>
       </c>
       <c r="D610">
         <v>932798.0600000001</v>
@@ -14171,8 +14175,8 @@
       <c r="B611" t="s">
         <v>121</v>
       </c>
-      <c r="C611">
-        <v>2023</v>
+      <c r="C611" s="2">
+        <v>44927</v>
       </c>
       <c r="D611">
         <v>0</v>
@@ -14194,8 +14198,8 @@
       <c r="B612" t="s">
         <v>122</v>
       </c>
-      <c r="C612">
-        <v>2020</v>
+      <c r="C612" s="2">
+        <v>43831</v>
       </c>
       <c r="D612">
         <v>12342.41</v>
@@ -14214,8 +14218,8 @@
       <c r="B613" t="s">
         <v>122</v>
       </c>
-      <c r="C613">
-        <v>2021</v>
+      <c r="C613" s="2">
+        <v>44197</v>
       </c>
       <c r="D613">
         <v>-12342.41</v>
@@ -14234,8 +14238,8 @@
       <c r="B614" t="s">
         <v>122</v>
       </c>
-      <c r="C614">
-        <v>2022</v>
+      <c r="C614" s="2">
+        <v>44562</v>
       </c>
       <c r="D614">
         <v>5553.06</v>
@@ -14257,8 +14261,8 @@
       <c r="B615" t="s">
         <v>123</v>
       </c>
-      <c r="C615">
-        <v>2020</v>
+      <c r="C615" s="2">
+        <v>43831</v>
       </c>
       <c r="D615">
         <v>12291.83</v>
@@ -14277,8 +14281,8 @@
       <c r="B616" t="s">
         <v>123</v>
       </c>
-      <c r="C616">
-        <v>2021</v>
+      <c r="C616" s="2">
+        <v>44197</v>
       </c>
       <c r="D616">
         <v>292138.21</v>
@@ -14297,8 +14301,8 @@
       <c r="B617" t="s">
         <v>123</v>
       </c>
-      <c r="C617">
-        <v>2022</v>
+      <c r="C617" s="2">
+        <v>44562</v>
       </c>
       <c r="D617">
         <v>233646.35</v>
@@ -14317,8 +14321,8 @@
       <c r="B618" t="s">
         <v>123</v>
       </c>
-      <c r="C618">
-        <v>2023</v>
+      <c r="C618" s="2">
+        <v>44927</v>
       </c>
       <c r="D618">
         <v>536005.6</v>
@@ -14340,8 +14344,8 @@
       <c r="B619" t="s">
         <v>124</v>
       </c>
-      <c r="C619">
-        <v>2021</v>
+      <c r="C619" s="2">
+        <v>44197</v>
       </c>
       <c r="D619">
         <v>598664.08</v>
@@ -14360,8 +14364,8 @@
       <c r="B620" t="s">
         <v>124</v>
       </c>
-      <c r="C620">
-        <v>2022</v>
+      <c r="C620" s="2">
+        <v>44562</v>
       </c>
       <c r="D620">
         <v>1688739.14</v>
@@ -14380,8 +14384,8 @@
       <c r="B621" t="s">
         <v>124</v>
       </c>
-      <c r="C621">
-        <v>2023</v>
+      <c r="C621" s="2">
+        <v>44927</v>
       </c>
       <c r="D621">
         <v>1365978.45</v>
@@ -14403,8 +14407,8 @@
       <c r="B622" t="s">
         <v>125</v>
       </c>
-      <c r="C622">
-        <v>2022</v>
+      <c r="C622" s="2">
+        <v>44562</v>
       </c>
       <c r="D622">
         <v>108618.62</v>
@@ -14423,8 +14427,8 @@
       <c r="B623" t="s">
         <v>125</v>
       </c>
-      <c r="C623">
-        <v>2023</v>
+      <c r="C623" s="2">
+        <v>44927</v>
       </c>
       <c r="D623">
         <v>686278.98</v>
@@ -14443,8 +14447,8 @@
       <c r="B624" t="s">
         <v>126</v>
       </c>
-      <c r="C624">
-        <v>2022</v>
+      <c r="C624" s="2">
+        <v>44562</v>
       </c>
       <c r="D624">
         <v>81910.27</v>
@@ -14466,8 +14470,8 @@
       <c r="B625" t="s">
         <v>127</v>
       </c>
-      <c r="C625">
-        <v>2021</v>
+      <c r="C625" s="2">
+        <v>44197</v>
       </c>
       <c r="D625">
         <v>500000.17</v>
@@ -14486,8 +14490,8 @@
       <c r="B626" t="s">
         <v>127</v>
       </c>
-      <c r="C626">
-        <v>2022</v>
+      <c r="C626" s="2">
+        <v>44562</v>
       </c>
       <c r="D626">
         <v>500000</v>
@@ -14509,8 +14513,8 @@
       <c r="B627" t="s">
         <v>127</v>
       </c>
-      <c r="C627">
-        <v>2023</v>
+      <c r="C627" s="2">
+        <v>44927</v>
       </c>
       <c r="D627">
         <v>609116.1899999999</v>
@@ -14529,8 +14533,8 @@
       <c r="B628" t="s">
         <v>128</v>
       </c>
-      <c r="C628">
-        <v>2022</v>
+      <c r="C628" s="2">
+        <v>44562</v>
       </c>
       <c r="D628">
         <v>0</v>
@@ -14549,8 +14553,8 @@
       <c r="B629" t="s">
         <v>128</v>
       </c>
-      <c r="C629">
-        <v>2023</v>
+      <c r="C629" s="2">
+        <v>44927</v>
       </c>
       <c r="D629">
         <v>103268.03</v>
@@ -14569,8 +14573,8 @@
       <c r="B630" t="s">
         <v>129</v>
       </c>
-      <c r="C630">
-        <v>2023</v>
+      <c r="C630" s="2">
+        <v>44927</v>
       </c>
       <c r="D630">
         <v>144373.38</v>
@@ -14589,8 +14593,8 @@
       <c r="B631" t="s">
         <v>130</v>
       </c>
-      <c r="C631">
-        <v>2022</v>
+      <c r="C631" s="2">
+        <v>44562</v>
       </c>
       <c r="D631">
         <v>0</v>
@@ -14609,8 +14613,8 @@
       <c r="B632" t="s">
         <v>130</v>
       </c>
-      <c r="C632">
-        <v>2023</v>
+      <c r="C632" s="2">
+        <v>44927</v>
       </c>
       <c r="D632">
         <v>48507.07</v>
@@ -14629,8 +14633,8 @@
       <c r="B633" t="s">
         <v>131</v>
       </c>
-      <c r="C633">
-        <v>2021</v>
+      <c r="C633" s="2">
+        <v>44197</v>
       </c>
       <c r="D633">
         <v>93260.11</v>
@@ -14649,8 +14653,8 @@
       <c r="B634" t="s">
         <v>131</v>
       </c>
-      <c r="C634">
-        <v>2022</v>
+      <c r="C634" s="2">
+        <v>44562</v>
       </c>
       <c r="D634">
         <v>342031.84</v>
@@ -14672,8 +14676,8 @@
       <c r="B635" t="s">
         <v>131</v>
       </c>
-      <c r="C635">
-        <v>2023</v>
+      <c r="C635" s="2">
+        <v>44927</v>
       </c>
       <c r="D635">
         <v>-11117.22</v>
@@ -14695,8 +14699,8 @@
       <c r="B636" t="s">
         <v>132</v>
       </c>
-      <c r="C636">
-        <v>2023</v>
+      <c r="C636" s="2">
+        <v>44927</v>
       </c>
       <c r="D636">
         <v>61852.23</v>
@@ -14715,8 +14719,8 @@
       <c r="B637" t="s">
         <v>133</v>
       </c>
-      <c r="C637">
-        <v>2023</v>
+      <c r="C637" s="2">
+        <v>44927</v>
       </c>
       <c r="D637">
         <v>60343.37</v>
@@ -14735,8 +14739,8 @@
       <c r="B638" t="s">
         <v>134</v>
       </c>
-      <c r="C638">
-        <v>2022</v>
+      <c r="C638" s="2">
+        <v>44562</v>
       </c>
       <c r="D638">
         <v>0</v>
@@ -14755,8 +14759,8 @@
       <c r="B639" t="s">
         <v>134</v>
       </c>
-      <c r="C639">
-        <v>2023</v>
+      <c r="C639" s="2">
+        <v>44927</v>
       </c>
       <c r="D639">
         <v>77593.87</v>
@@ -14775,8 +14779,8 @@
       <c r="B640" t="s">
         <v>135</v>
       </c>
-      <c r="C640">
-        <v>2022</v>
+      <c r="C640" s="2">
+        <v>44562</v>
       </c>
       <c r="D640">
         <v>386538.45</v>
@@ -14798,8 +14802,8 @@
       <c r="B641" t="s">
         <v>135</v>
       </c>
-      <c r="C641">
-        <v>2023</v>
+      <c r="C641" s="2">
+        <v>44927</v>
       </c>
       <c r="D641">
         <v>606624.22</v>
@@ -14818,8 +14822,8 @@
       <c r="B642" t="s">
         <v>136</v>
       </c>
-      <c r="C642">
-        <v>2022</v>
+      <c r="C642" s="2">
+        <v>44562</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -14838,8 +14842,8 @@
       <c r="B643" t="s">
         <v>137</v>
       </c>
-      <c r="C643">
-        <v>2022</v>
+      <c r="C643" s="2">
+        <v>44562</v>
       </c>
       <c r="D643">
         <v>0</v>
@@ -14858,8 +14862,8 @@
       <c r="B644" t="s">
         <v>137</v>
       </c>
-      <c r="C644">
-        <v>2023</v>
+      <c r="C644" s="2">
+        <v>44927</v>
       </c>
       <c r="D644">
         <v>39802.94</v>
@@ -14878,8 +14882,8 @@
       <c r="B645" t="s">
         <v>138</v>
       </c>
-      <c r="C645">
-        <v>2022</v>
+      <c r="C645" s="2">
+        <v>44562</v>
       </c>
       <c r="D645">
         <v>159242.61</v>
@@ -14901,8 +14905,8 @@
       <c r="B646" t="s">
         <v>138</v>
       </c>
-      <c r="C646">
-        <v>2023</v>
+      <c r="C646" s="2">
+        <v>44927</v>
       </c>
       <c r="D646">
         <v>500000</v>
@@ -14924,8 +14928,8 @@
       <c r="B647" t="s">
         <v>139</v>
       </c>
-      <c r="C647">
-        <v>2023</v>
+      <c r="C647" s="2">
+        <v>44927</v>
       </c>
       <c r="D647">
         <v>0</v>
@@ -14944,8 +14948,8 @@
       <c r="B648" t="s">
         <v>140</v>
       </c>
-      <c r="C648">
-        <v>2023</v>
+      <c r="C648" s="2">
+        <v>44927</v>
       </c>
       <c r="D648">
         <v>32603.23</v>
@@ -14964,8 +14968,8 @@
       <c r="B649" t="s">
         <v>141</v>
       </c>
-      <c r="C649">
-        <v>2022</v>
+      <c r="C649" s="2">
+        <v>44562</v>
       </c>
       <c r="D649">
         <v>0</v>
@@ -14984,8 +14988,8 @@
       <c r="B650" t="s">
         <v>141</v>
       </c>
-      <c r="C650">
-        <v>2023</v>
+      <c r="C650" s="2">
+        <v>44927</v>
       </c>
       <c r="D650">
         <v>59678.08</v>
@@ -15004,8 +15008,8 @@
       <c r="B651" t="s">
         <v>142</v>
       </c>
-      <c r="C651">
-        <v>2022</v>
+      <c r="C651" s="2">
+        <v>44562</v>
       </c>
       <c r="D651">
         <v>76577.63</v>
@@ -15024,8 +15028,8 @@
       <c r="B652" t="s">
         <v>142</v>
       </c>
-      <c r="C652">
-        <v>2023</v>
+      <c r="C652" s="2">
+        <v>44927</v>
       </c>
       <c r="D652">
         <v>151821.33</v>
@@ -15044,8 +15048,8 @@
       <c r="B653" t="s">
         <v>143</v>
       </c>
-      <c r="C653">
-        <v>2022</v>
+      <c r="C653" s="2">
+        <v>44562</v>
       </c>
       <c r="D653">
         <v>31675.64</v>
@@ -15064,8 +15068,8 @@
       <c r="B654" t="s">
         <v>143</v>
       </c>
-      <c r="C654">
-        <v>2023</v>
+      <c r="C654" s="2">
+        <v>44927</v>
       </c>
       <c r="D654">
         <v>404628.89</v>
@@ -15084,8 +15088,8 @@
       <c r="B655" t="s">
         <v>144</v>
       </c>
-      <c r="C655">
-        <v>2023</v>
+      <c r="C655" s="2">
+        <v>44927</v>
       </c>
       <c r="D655">
         <v>86422.08</v>
@@ -15107,8 +15111,8 @@
       <c r="B656" t="s">
         <v>145</v>
       </c>
-      <c r="C656">
-        <v>2023</v>
+      <c r="C656" s="2">
+        <v>44927</v>
       </c>
       <c r="D656">
         <v>41625</v>
@@ -15127,8 +15131,8 @@
       <c r="B657" t="s">
         <v>146</v>
       </c>
-      <c r="C657">
-        <v>2023</v>
+      <c r="C657" s="2">
+        <v>44927</v>
       </c>
       <c r="D657">
         <v>71948.85000000001</v>
@@ -15147,8 +15151,8 @@
       <c r="B658" t="s">
         <v>147</v>
       </c>
-      <c r="C658">
-        <v>2021</v>
+      <c r="C658" s="2">
+        <v>44197</v>
       </c>
       <c r="D658">
         <v>81040.38</v>
@@ -15170,8 +15174,8 @@
       <c r="B659" t="s">
         <v>147</v>
       </c>
-      <c r="C659">
-        <v>2022</v>
+      <c r="C659" s="2">
+        <v>44562</v>
       </c>
       <c r="D659">
         <v>596225.96</v>
@@ -15193,8 +15197,8 @@
       <c r="B660" t="s">
         <v>147</v>
       </c>
-      <c r="C660">
-        <v>2023</v>
+      <c r="C660" s="2">
+        <v>44927</v>
       </c>
       <c r="D660">
         <v>392961.38</v>
@@ -15216,8 +15220,8 @@
       <c r="B661" t="s">
         <v>148</v>
       </c>
-      <c r="C661">
-        <v>2019</v>
+      <c r="C661" s="2">
+        <v>43466</v>
       </c>
       <c r="D661">
         <v>40677</v>
@@ -15236,8 +15240,8 @@
       <c r="B662" t="s">
         <v>148</v>
       </c>
-      <c r="C662">
-        <v>2022</v>
+      <c r="C662" s="2">
+        <v>44562</v>
       </c>
       <c r="D662">
         <v>22219.11</v>
@@ -15259,8 +15263,8 @@
       <c r="B663" t="s">
         <v>149</v>
       </c>
-      <c r="C663">
-        <v>2021</v>
+      <c r="C663" s="2">
+        <v>44197</v>
       </c>
       <c r="D663">
         <v>196046.03</v>
@@ -15282,8 +15286,8 @@
       <c r="B664" t="s">
         <v>149</v>
       </c>
-      <c r="C664">
-        <v>2022</v>
+      <c r="C664" s="2">
+        <v>44562</v>
       </c>
       <c r="D664">
         <v>515523.58</v>
@@ -15305,8 +15309,8 @@
       <c r="B665" t="s">
         <v>149</v>
       </c>
-      <c r="C665">
-        <v>2023</v>
+      <c r="C665" s="2">
+        <v>44927</v>
       </c>
       <c r="D665">
         <v>331905.2</v>
@@ -15328,8 +15332,8 @@
       <c r="B666" t="s">
         <v>150</v>
       </c>
-      <c r="C666">
-        <v>2021</v>
+      <c r="C666" s="2">
+        <v>44197</v>
       </c>
       <c r="D666">
         <v>43152.89</v>
@@ -15351,8 +15355,8 @@
       <c r="B667" t="s">
         <v>150</v>
       </c>
-      <c r="C667">
-        <v>2022</v>
+      <c r="C667" s="2">
+        <v>44562</v>
       </c>
       <c r="D667">
         <v>159363.83</v>
@@ -15374,8 +15378,8 @@
       <c r="B668" t="s">
         <v>150</v>
       </c>
-      <c r="C668">
-        <v>2023</v>
+      <c r="C668" s="2">
+        <v>44927</v>
       </c>
       <c r="D668">
         <v>355527.64</v>
@@ -15397,8 +15401,8 @@
       <c r="B669" t="s">
         <v>151</v>
       </c>
-      <c r="C669">
-        <v>2021</v>
+      <c r="C669" s="2">
+        <v>44197</v>
       </c>
       <c r="D669">
         <v>264732.47</v>
@@ -15420,8 +15424,8 @@
       <c r="B670" t="s">
         <v>151</v>
       </c>
-      <c r="C670">
-        <v>2022</v>
+      <c r="C670" s="2">
+        <v>44562</v>
       </c>
       <c r="D670">
         <v>692952.01</v>
@@ -15443,8 +15447,8 @@
       <c r="B671" t="s">
         <v>151</v>
       </c>
-      <c r="C671">
-        <v>2023</v>
+      <c r="C671" s="2">
+        <v>44927</v>
       </c>
       <c r="D671">
         <v>490014.18</v>
@@ -15466,8 +15470,8 @@
       <c r="B672" t="s">
         <v>152</v>
       </c>
-      <c r="C672">
-        <v>2021</v>
+      <c r="C672" s="2">
+        <v>44197</v>
       </c>
       <c r="D672">
         <v>63713.74</v>
@@ -15489,8 +15493,8 @@
       <c r="B673" t="s">
         <v>152</v>
       </c>
-      <c r="C673">
-        <v>2022</v>
+      <c r="C673" s="2">
+        <v>44562</v>
       </c>
       <c r="D673">
         <v>583014.88</v>
@@ -15512,8 +15516,8 @@
       <c r="B674" t="s">
         <v>152</v>
       </c>
-      <c r="C674">
-        <v>2023</v>
+      <c r="C674" s="2">
+        <v>44927</v>
       </c>
       <c r="D674">
         <v>834946.59</v>
@@ -15535,8 +15539,8 @@
       <c r="B675" t="s">
         <v>153</v>
       </c>
-      <c r="C675">
-        <v>2021</v>
+      <c r="C675" s="2">
+        <v>44197</v>
       </c>
       <c r="D675">
         <v>40165.7</v>
@@ -15558,8 +15562,8 @@
       <c r="B676" t="s">
         <v>153</v>
       </c>
-      <c r="C676">
-        <v>2022</v>
+      <c r="C676" s="2">
+        <v>44562</v>
       </c>
       <c r="D676">
         <v>201919.2</v>
@@ -15581,8 +15585,8 @@
       <c r="B677" t="s">
         <v>153</v>
       </c>
-      <c r="C677">
-        <v>2023</v>
+      <c r="C677" s="2">
+        <v>44927</v>
       </c>
       <c r="D677">
         <v>100177.67</v>
@@ -15604,8 +15608,8 @@
       <c r="B678" t="s">
         <v>154</v>
       </c>
-      <c r="C678">
-        <v>2021</v>
+      <c r="C678" s="2">
+        <v>44197</v>
       </c>
       <c r="D678">
         <v>106683.16</v>
@@ -15627,8 +15631,8 @@
       <c r="B679" t="s">
         <v>154</v>
       </c>
-      <c r="C679">
-        <v>2022</v>
+      <c r="C679" s="2">
+        <v>44562</v>
       </c>
       <c r="D679">
         <v>406426.67</v>
@@ -15650,8 +15654,8 @@
       <c r="B680" t="s">
         <v>154</v>
       </c>
-      <c r="C680">
-        <v>2023</v>
+      <c r="C680" s="2">
+        <v>44927</v>
       </c>
       <c r="D680">
         <v>1277168.93</v>
@@ -15673,8 +15677,8 @@
       <c r="B681" t="s">
         <v>155</v>
       </c>
-      <c r="C681">
-        <v>2021</v>
+      <c r="C681" s="2">
+        <v>44197</v>
       </c>
       <c r="D681">
         <v>137344.44</v>
@@ -15696,8 +15700,8 @@
       <c r="B682" t="s">
         <v>155</v>
       </c>
-      <c r="C682">
-        <v>2022</v>
+      <c r="C682" s="2">
+        <v>44562</v>
       </c>
       <c r="D682">
         <v>943481.2</v>
@@ -15719,8 +15723,8 @@
       <c r="B683" t="s">
         <v>155</v>
       </c>
-      <c r="C683">
-        <v>2023</v>
+      <c r="C683" s="2">
+        <v>44927</v>
       </c>
       <c r="D683">
         <v>818594.54</v>
@@ -15742,8 +15746,8 @@
       <c r="B684" t="s">
         <v>156</v>
       </c>
-      <c r="C684">
-        <v>2021</v>
+      <c r="C684" s="2">
+        <v>44197</v>
       </c>
       <c r="D684">
         <v>407322.12</v>
@@ -15765,8 +15769,8 @@
       <c r="B685" t="s">
         <v>156</v>
       </c>
-      <c r="C685">
-        <v>2022</v>
+      <c r="C685" s="2">
+        <v>44562</v>
       </c>
       <c r="D685">
         <v>136989.72</v>
@@ -15788,8 +15792,8 @@
       <c r="B686" t="s">
         <v>156</v>
       </c>
-      <c r="C686">
-        <v>2023</v>
+      <c r="C686" s="2">
+        <v>44927</v>
       </c>
       <c r="D686">
         <v>178299.74</v>
@@ -15811,8 +15815,8 @@
       <c r="B687" t="s">
         <v>157</v>
       </c>
-      <c r="C687">
-        <v>2021</v>
+      <c r="C687" s="2">
+        <v>44197</v>
       </c>
       <c r="D687">
         <v>82571.57000000001</v>
@@ -15834,8 +15838,8 @@
       <c r="B688" t="s">
         <v>157</v>
       </c>
-      <c r="C688">
-        <v>2022</v>
+      <c r="C688" s="2">
+        <v>44562</v>
       </c>
       <c r="D688">
         <v>500000.11</v>
@@ -15857,8 +15861,8 @@
       <c r="B689" t="s">
         <v>157</v>
       </c>
-      <c r="C689">
-        <v>2023</v>
+      <c r="C689" s="2">
+        <v>44927</v>
       </c>
       <c r="D689">
         <v>1149917.77</v>
@@ -15880,8 +15884,8 @@
       <c r="B690" t="s">
         <v>158</v>
       </c>
-      <c r="C690">
-        <v>2021</v>
+      <c r="C690" s="2">
+        <v>44197</v>
       </c>
       <c r="D690">
         <v>113616.83</v>
@@ -15903,8 +15907,8 @@
       <c r="B691" t="s">
         <v>158</v>
       </c>
-      <c r="C691">
-        <v>2022</v>
+      <c r="C691" s="2">
+        <v>44562</v>
       </c>
       <c r="D691">
         <v>1279185.61</v>
@@ -15926,8 +15930,8 @@
       <c r="B692" t="s">
         <v>158</v>
       </c>
-      <c r="C692">
-        <v>2023</v>
+      <c r="C692" s="2">
+        <v>44927</v>
       </c>
       <c r="D692">
         <v>764138.74</v>
@@ -15949,8 +15953,8 @@
       <c r="B693" t="s">
         <v>159</v>
       </c>
-      <c r="C693">
-        <v>2021</v>
+      <c r="C693" s="2">
+        <v>44197</v>
       </c>
       <c r="D693">
         <v>214485.94</v>
@@ -15972,8 +15976,8 @@
       <c r="B694" t="s">
         <v>159</v>
       </c>
-      <c r="C694">
-        <v>2022</v>
+      <c r="C694" s="2">
+        <v>44562</v>
       </c>
       <c r="D694">
         <v>1534149.72</v>
@@ -15995,8 +15999,8 @@
       <c r="B695" t="s">
         <v>159</v>
       </c>
-      <c r="C695">
-        <v>2023</v>
+      <c r="C695" s="2">
+        <v>44927</v>
       </c>
       <c r="D695">
         <v>1066567.17</v>
@@ -16018,8 +16022,8 @@
       <c r="B696" t="s">
         <v>160</v>
       </c>
-      <c r="C696">
-        <v>2021</v>
+      <c r="C696" s="2">
+        <v>44197</v>
       </c>
       <c r="D696">
         <v>281890.65</v>
@@ -16041,8 +16045,8 @@
       <c r="B697" t="s">
         <v>160</v>
       </c>
-      <c r="C697">
-        <v>2022</v>
+      <c r="C697" s="2">
+        <v>44562</v>
       </c>
       <c r="D697">
         <v>288382.87</v>
@@ -16064,8 +16068,8 @@
       <c r="B698" t="s">
         <v>160</v>
       </c>
-      <c r="C698">
-        <v>2023</v>
+      <c r="C698" s="2">
+        <v>44927</v>
       </c>
       <c r="D698">
         <v>227790.96</v>
